--- a/xlsx/loaddata.xlsx
+++ b/xlsx/loaddata.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="617">
   <si>
     <t xml:space="preserve">BloodType</t>
   </si>
@@ -210,6 +210,9 @@
     <t xml:space="preserve">profile_image</t>
   </si>
   <si>
+    <t xml:space="preserve">b2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chadaporn</t>
   </si>
   <si>
@@ -231,6 +234,9 @@
     <t xml:space="preserve">M</t>
   </si>
   <si>
+    <t xml:space="preserve">b3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sirilak</t>
   </si>
   <si>
@@ -246,6 +252,9 @@
     <t xml:space="preserve">bornborn124</t>
   </si>
   <si>
+    <t xml:space="preserve">b4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alisa</t>
   </si>
   <si>
@@ -261,6 +270,9 @@
     <t xml:space="preserve">bornborn125</t>
   </si>
   <si>
+    <t xml:space="preserve">b5</t>
+  </si>
+  <si>
     <t xml:space="preserve">thidarat</t>
   </si>
   <si>
@@ -276,6 +288,9 @@
     <t xml:space="preserve">bornborn126</t>
   </si>
   <si>
+    <t xml:space="preserve">b6</t>
+  </si>
+  <si>
     <t xml:space="preserve">Justin</t>
   </si>
   <si>
@@ -291,6 +306,9 @@
     <t xml:space="preserve">bornborn127</t>
   </si>
   <si>
+    <t xml:space="preserve">b7</t>
+  </si>
+  <si>
     <t xml:space="preserve">Liam</t>
   </si>
   <si>
@@ -306,6 +324,9 @@
     <t xml:space="preserve">bornborn128</t>
   </si>
   <si>
+    <t xml:space="preserve">b8</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ava</t>
   </si>
   <si>
@@ -321,6 +342,9 @@
     <t xml:space="preserve">bornborn129</t>
   </si>
   <si>
+    <t xml:space="preserve">b9</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jamie</t>
   </si>
   <si>
@@ -336,6 +360,9 @@
     <t xml:space="preserve">bornborn130</t>
   </si>
   <si>
+    <t xml:space="preserve">b10</t>
+  </si>
+  <si>
     <t xml:space="preserve">Josefa</t>
   </si>
   <si>
@@ -351,6 +378,9 @@
     <t xml:space="preserve">bornborn131</t>
   </si>
   <si>
+    <t xml:space="preserve">b11</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mark</t>
   </si>
   <si>
@@ -366,6 +396,9 @@
     <t xml:space="preserve">bornborn132</t>
   </si>
   <si>
+    <t xml:space="preserve">b12</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maximiliano</t>
   </si>
   <si>
@@ -381,6 +414,9 @@
     <t xml:space="preserve">bornborn133</t>
   </si>
   <si>
+    <t xml:space="preserve">b13</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bastian</t>
   </si>
   <si>
@@ -396,6 +432,9 @@
     <t xml:space="preserve">bornborn134</t>
   </si>
   <si>
+    <t xml:space="preserve">b14</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ayano</t>
   </si>
   <si>
@@ -411,6 +450,9 @@
     <t xml:space="preserve">bornborn135</t>
   </si>
   <si>
+    <t xml:space="preserve">b15</t>
+  </si>
+  <si>
     <t xml:space="preserve">Grace</t>
   </si>
   <si>
@@ -426,6 +468,9 @@
     <t xml:space="preserve">bornborn136</t>
   </si>
   <si>
+    <t xml:space="preserve">b16</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ai</t>
   </si>
   <si>
@@ -441,6 +486,9 @@
     <t xml:space="preserve">bornborn137</t>
   </si>
   <si>
+    <t xml:space="preserve">b17</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kaito</t>
   </si>
   <si>
@@ -456,6 +504,9 @@
     <t xml:space="preserve">bornborn138</t>
   </si>
   <si>
+    <t xml:space="preserve">b18</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kai</t>
   </si>
   <si>
@@ -471,6 +522,9 @@
     <t xml:space="preserve">bornborn139</t>
   </si>
   <si>
+    <t xml:space="preserve">b19</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jun</t>
   </si>
   <si>
@@ -486,6 +540,9 @@
     <t xml:space="preserve">bornborn140</t>
   </si>
   <si>
+    <t xml:space="preserve">b20</t>
+  </si>
+  <si>
     <t xml:space="preserve">Takuya</t>
   </si>
   <si>
@@ -501,6 +558,9 @@
     <t xml:space="preserve">bornborn141</t>
   </si>
   <si>
+    <t xml:space="preserve">b21</t>
+  </si>
+  <si>
     <t xml:space="preserve">Justine</t>
   </si>
   <si>
@@ -516,6 +576,9 @@
     <t xml:space="preserve">bornborn142</t>
   </si>
   <si>
+    <t xml:space="preserve">b22</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nik</t>
   </si>
   <si>
@@ -531,6 +594,9 @@
     <t xml:space="preserve">bornborn143</t>
   </si>
   <si>
+    <t xml:space="preserve">b23</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ara</t>
   </si>
   <si>
@@ -546,6 +612,9 @@
     <t xml:space="preserve">bornborn144</t>
   </si>
   <si>
+    <t xml:space="preserve">b24</t>
+  </si>
+  <si>
     <t xml:space="preserve">Carlos</t>
   </si>
   <si>
@@ -561,6 +630,9 @@
     <t xml:space="preserve">bornborn145</t>
   </si>
   <si>
+    <t xml:space="preserve">b25</t>
+  </si>
+  <si>
     <t xml:space="preserve">Anna</t>
   </si>
   <si>
@@ -576,6 +648,9 @@
     <t xml:space="preserve">bornborn146</t>
   </si>
   <si>
+    <t xml:space="preserve">b26</t>
+  </si>
+  <si>
     <t xml:space="preserve">Daichi</t>
   </si>
   <si>
@@ -591,6 +666,9 @@
     <t xml:space="preserve">bornborn147</t>
   </si>
   <si>
+    <t xml:space="preserve">b27</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dean</t>
   </si>
   <si>
@@ -606,6 +684,9 @@
     <t xml:space="preserve">bornborn148</t>
   </si>
   <si>
+    <t xml:space="preserve">b28</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kaipal</t>
   </si>
   <si>
@@ -621,6 +702,9 @@
     <t xml:space="preserve">bornborn149</t>
   </si>
   <si>
+    <t xml:space="preserve">b29</t>
+  </si>
+  <si>
     <t xml:space="preserve">Riley</t>
   </si>
   <si>
@@ -636,6 +720,9 @@
     <t xml:space="preserve">bornborn150</t>
   </si>
   <si>
+    <t xml:space="preserve">b30</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sofia</t>
   </si>
   <si>
@@ -651,6 +738,9 @@
     <t xml:space="preserve">bornborn151</t>
   </si>
   <si>
+    <t xml:space="preserve">b31</t>
+  </si>
+  <si>
     <t xml:space="preserve">Darren</t>
   </si>
   <si>
@@ -666,6 +756,9 @@
     <t xml:space="preserve">bornborn152</t>
   </si>
   <si>
+    <t xml:space="preserve">b32</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fernado</t>
   </si>
   <si>
@@ -681,6 +774,9 @@
     <t xml:space="preserve">bornborn153</t>
   </si>
   <si>
+    <t xml:space="preserve">b33</t>
+  </si>
+  <si>
     <t xml:space="preserve">Misaki</t>
   </si>
   <si>
@@ -696,6 +792,9 @@
     <t xml:space="preserve">bornborn154</t>
   </si>
   <si>
+    <t xml:space="preserve">b34</t>
+  </si>
+  <si>
     <t xml:space="preserve">Orla</t>
   </si>
   <si>
@@ -711,6 +810,9 @@
     <t xml:space="preserve">bornborn155</t>
   </si>
   <si>
+    <t xml:space="preserve">b35</t>
+  </si>
+  <si>
     <t xml:space="preserve">Robert</t>
   </si>
   <si>
@@ -726,6 +828,9 @@
     <t xml:space="preserve">bornborn156</t>
   </si>
   <si>
+    <t xml:space="preserve">b36</t>
+  </si>
+  <si>
     <t xml:space="preserve">Valentina</t>
   </si>
   <si>
@@ -741,6 +846,9 @@
     <t xml:space="preserve">bornborn157</t>
   </si>
   <si>
+    <t xml:space="preserve">b37</t>
+  </si>
+  <si>
     <t xml:space="preserve">Aya</t>
   </si>
   <si>
@@ -756,6 +864,9 @@
     <t xml:space="preserve">bornborn158</t>
   </si>
   <si>
+    <t xml:space="preserve">b38</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ryan</t>
   </si>
   <si>
@@ -771,6 +882,9 @@
     <t xml:space="preserve">bornborn159</t>
   </si>
   <si>
+    <t xml:space="preserve">b39</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jose</t>
   </si>
   <si>
@@ -786,6 +900,9 @@
     <t xml:space="preserve">bornborn160</t>
   </si>
   <si>
+    <t xml:space="preserve">b40</t>
+  </si>
+  <si>
     <t xml:space="preserve">Shota</t>
   </si>
   <si>
@@ -801,6 +918,9 @@
     <t xml:space="preserve">bornborn161</t>
   </si>
   <si>
+    <t xml:space="preserve">b41</t>
+  </si>
+  <si>
     <t xml:space="preserve">De Leeuw</t>
   </si>
   <si>
@@ -813,6 +933,9 @@
     <t xml:space="preserve">bornborn162</t>
   </si>
   <si>
+    <t xml:space="preserve">b42</t>
+  </si>
+  <si>
     <t xml:space="preserve">Anthony</t>
   </si>
   <si>
@@ -828,6 +951,9 @@
     <t xml:space="preserve">bornborn163</t>
   </si>
   <si>
+    <t xml:space="preserve">b43</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nina</t>
   </si>
   <si>
@@ -843,6 +969,9 @@
     <t xml:space="preserve">bornborn164</t>
   </si>
   <si>
+    <t xml:space="preserve">b44</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lara</t>
   </si>
   <si>
@@ -858,6 +987,9 @@
     <t xml:space="preserve">bornborn165</t>
   </si>
   <si>
+    <t xml:space="preserve">b45</t>
+  </si>
+  <si>
     <t xml:space="preserve">Daiki</t>
   </si>
   <si>
@@ -873,6 +1005,9 @@
     <t xml:space="preserve">bornborn166</t>
   </si>
   <si>
+    <t xml:space="preserve">b46</t>
+  </si>
+  <si>
     <t xml:space="preserve">Felipe</t>
   </si>
   <si>
@@ -888,6 +1023,9 @@
     <t xml:space="preserve">bornborn167</t>
   </si>
   <si>
+    <t xml:space="preserve">b47</t>
+  </si>
+  <si>
     <t xml:space="preserve">Camila</t>
   </si>
   <si>
@@ -903,6 +1041,9 @@
     <t xml:space="preserve">bornborn168</t>
   </si>
   <si>
+    <t xml:space="preserve">b48</t>
+  </si>
+  <si>
     <t xml:space="preserve">Juninho</t>
   </si>
   <si>
@@ -915,6 +1056,9 @@
     <t xml:space="preserve">bornborn169</t>
   </si>
   <si>
+    <t xml:space="preserve">b49</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hama</t>
   </si>
   <si>
@@ -928,6 +1072,9 @@
   </si>
   <si>
     <t xml:space="preserve">bornborn170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b50</t>
   </si>
   <si>
     <t xml:space="preserve">Miki</t>
@@ -3009,7 +3156,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="33.14"/>
@@ -3089,7 +3236,7 @@
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.41"/>
@@ -3101,7 +3248,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>547</v>
+        <v>596</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3109,10 +3256,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>548</v>
+        <v>597</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>549</v>
+        <v>598</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3177,7 +3324,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J17" s="22" t="s">
-        <v>550</v>
+        <v>599</v>
       </c>
       <c r="K17" s="23"/>
       <c r="L17" s="23"/>
@@ -3192,7 +3339,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J18" s="24" t="s">
-        <v>551</v>
+        <v>600</v>
       </c>
       <c r="K18" s="23"/>
       <c r="L18" s="23"/>
@@ -3207,7 +3354,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J19" s="24" t="s">
-        <v>552</v>
+        <v>601</v>
       </c>
       <c r="K19" s="23"/>
       <c r="L19" s="23"/>
@@ -3222,7 +3369,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J20" s="24" t="s">
-        <v>553</v>
+        <v>602</v>
       </c>
       <c r="K20" s="23"/>
       <c r="L20" s="23"/>
@@ -3237,7 +3384,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J21" s="24" t="s">
-        <v>554</v>
+        <v>603</v>
       </c>
       <c r="K21" s="23"/>
       <c r="L21" s="23"/>
@@ -3252,7 +3399,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J22" s="24" t="s">
-        <v>555</v>
+        <v>604</v>
       </c>
       <c r="K22" s="23"/>
       <c r="L22" s="23"/>
@@ -3287,7 +3434,7 @@
       <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="33.14"/>
@@ -3302,7 +3449,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>556</v>
+        <v>605</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
@@ -3313,16 +3460,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>557</v>
+        <v>606</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>558</v>
+        <v>607</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>548</v>
+        <v>597</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>559</v>
+        <v>608</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3333,7 +3480,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>560</v>
+        <v>609</v>
       </c>
       <c r="D3" s="21" t="n">
         <f aca="false">TRUE()</f>
@@ -3341,7 +3488,7 @@
       </c>
       <c r="E3" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3352,7 +3499,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>561</v>
+        <v>610</v>
       </c>
       <c r="D4" s="21" t="n">
         <f aca="false">TRUE()</f>
@@ -3371,7 +3518,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>562</v>
+        <v>611</v>
       </c>
       <c r="D5" s="21" t="n">
         <f aca="false">TRUE()</f>
@@ -3390,7 +3537,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>563</v>
+        <v>612</v>
       </c>
       <c r="D6" s="21" t="n">
         <f aca="false">FALSE()</f>
@@ -3398,7 +3545,7 @@
       </c>
       <c r="E6" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3409,7 +3556,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>564</v>
+        <v>613</v>
       </c>
       <c r="D7" s="21" t="n">
         <f aca="false">FALSE()</f>
@@ -3417,7 +3564,7 @@
       </c>
       <c r="E7" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3428,7 +3575,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>564</v>
+        <v>613</v>
       </c>
       <c r="D8" s="21" t="n">
         <f aca="false">FALSE()</f>
@@ -3436,7 +3583,7 @@
       </c>
       <c r="E8" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3447,7 +3594,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>564</v>
+        <v>613</v>
       </c>
       <c r="D9" s="21" t="n">
         <f aca="false">FALSE()</f>
@@ -3466,7 +3613,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>564</v>
+        <v>613</v>
       </c>
       <c r="D10" s="21" t="n">
         <f aca="false">FALSE()</f>
@@ -3474,7 +3621,7 @@
       </c>
       <c r="E10" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3485,7 +3632,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>564</v>
+        <v>613</v>
       </c>
       <c r="D11" s="21" t="n">
         <f aca="false">FALSE()</f>
@@ -3504,7 +3651,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>564</v>
+        <v>613</v>
       </c>
       <c r="D12" s="21" t="n">
         <f aca="false">FALSE()</f>
@@ -3512,7 +3659,7 @@
       </c>
       <c r="E12" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3523,7 +3670,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>564</v>
+        <v>613</v>
       </c>
       <c r="D13" s="21" t="n">
         <f aca="false">FALSE()</f>
@@ -3531,7 +3678,7 @@
       </c>
       <c r="E13" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3542,7 +3689,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>564</v>
+        <v>613</v>
       </c>
       <c r="D14" s="21" t="n">
         <f aca="false">FALSE()</f>
@@ -3550,7 +3697,7 @@
       </c>
       <c r="E14" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3561,7 +3708,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>564</v>
+        <v>613</v>
       </c>
       <c r="D15" s="21" t="n">
         <f aca="false">FALSE()</f>
@@ -3569,7 +3716,7 @@
       </c>
       <c r="E15" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3580,7 +3727,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>564</v>
+        <v>613</v>
       </c>
       <c r="D16" s="21" t="n">
         <f aca="false">FALSE()</f>
@@ -3588,7 +3735,7 @@
       </c>
       <c r="E16" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3599,7 +3746,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>564</v>
+        <v>613</v>
       </c>
       <c r="D17" s="21" t="n">
         <f aca="false">FALSE()</f>
@@ -3607,7 +3754,7 @@
       </c>
       <c r="E17" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3641,7 +3788,7 @@
       <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="33.14"/>
@@ -3656,7 +3803,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>565</v>
+        <v>614</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3664,10 +3811,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>566</v>
+        <v>615</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>567</v>
+        <v>616</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3912,7 +4059,7 @@
       <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="33.14"/>
@@ -4019,7 +4166,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="33.14"/>
@@ -4163,7 +4310,7 @@
       <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="33.14"/>
@@ -4307,7 +4454,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.85"/>
@@ -4386,7 +4533,7 @@
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.85"/>
@@ -4465,7 +4612,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.42"/>
   </cols>
@@ -4521,11 +4668,11 @@
   </sheetPr>
   <dimension ref="A1:K103"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15"/>
@@ -4581,23 +4728,23 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="11.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
-        <v>2</v>
+      <c r="A3" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G3" s="13" t="n">
         <v>36172</v>
@@ -4606,30 +4753,30 @@
         <v>4</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
-        <v>3</v>
+      <c r="A4" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G4" s="14" t="n">
         <v>36074</v>
@@ -4638,30 +4785,30 @@
         <v>2</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
-        <v>4</v>
+      <c r="A5" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G5" s="13" t="n">
         <v>35830</v>
@@ -4670,30 +4817,30 @@
         <v>3</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
-        <v>5</v>
+      <c r="A6" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G6" s="13" t="n">
         <v>35951</v>
@@ -4702,63 +4849,63 @@
         <v>2</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
-        <v>6</v>
+      <c r="A7" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G7" s="13" t="n">
         <v>37413</v>
       </c>
       <c r="H7" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="J7" s="11" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
-        <v>7</v>
+      <c r="A8" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G8" s="13" t="n">
         <v>37294</v>
@@ -4768,96 +4915,96 @@
         <v>3</v>
       </c>
       <c r="I8" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="J8" s="11" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
-        <v>8</v>
+      <c r="A9" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G9" s="13" t="n">
         <v>37415</v>
       </c>
       <c r="H9" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="J9" s="11" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
-        <v>9</v>
+      <c r="A10" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="G10" s="13" t="n">
         <v>37324</v>
       </c>
       <c r="H10" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="J10" s="11" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
-        <v>10</v>
+      <c r="A11" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="G11" s="13" t="n">
         <v>37266</v>
@@ -4867,294 +5014,294 @@
         <v>1</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
-        <v>11</v>
+      <c r="A12" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G12" s="13" t="n">
         <v>37267</v>
       </c>
       <c r="H12" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
-        <v>12</v>
+      <c r="A13" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G13" s="13" t="n">
         <v>37268</v>
       </c>
       <c r="H13" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="n">
-        <v>13</v>
+      <c r="A14" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="G14" s="13" t="n">
         <v>37269</v>
       </c>
       <c r="H14" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="n">
-        <v>14</v>
+      <c r="A15" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="G15" s="13" t="n">
         <v>37270</v>
       </c>
       <c r="H15" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
-        <v>15</v>
+      <c r="A16" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="G16" s="13" t="n">
         <v>37271</v>
       </c>
       <c r="H16" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="n">
-        <v>16</v>
+      <c r="A17" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="G17" s="13" t="n">
         <v>36572</v>
       </c>
       <c r="H17" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="n">
-        <v>17</v>
+      <c r="A18" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="G18" s="13" t="n">
         <v>36573</v>
       </c>
       <c r="H18" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="n">
-        <v>18</v>
+      <c r="A19" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="G19" s="13" t="n">
         <v>36574</v>
       </c>
       <c r="H19" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="n">
-        <v>19</v>
+      <c r="A20" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="G20" s="13" t="n">
         <v>36575</v>
@@ -5164,96 +5311,96 @@
         <v>3</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="n">
-        <v>20</v>
+      <c r="A21" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="G21" s="13" t="n">
         <v>36576</v>
       </c>
       <c r="H21" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="n">
-        <v>21</v>
+      <c r="A22" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="G22" s="13" t="n">
         <v>36577</v>
       </c>
       <c r="H22" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="n">
-        <v>22</v>
+      <c r="A23" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="G23" s="13" t="n">
         <v>36578</v>
@@ -5263,294 +5410,294 @@
         <v>3</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="n">
-        <v>23</v>
+      <c r="A24" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="G24" s="13" t="n">
         <v>36700</v>
       </c>
       <c r="H24" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="n">
-        <v>24</v>
+      <c r="A25" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="G25" s="13" t="n">
         <v>36609</v>
       </c>
       <c r="H25" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="n">
-        <v>25</v>
+      <c r="A26" s="4" t="s">
+        <v>199</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="G26" s="13" t="n">
         <v>36610</v>
       </c>
       <c r="H26" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="n">
-        <v>26</v>
+      <c r="A27" s="4" t="s">
+        <v>205</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="G27" s="13" t="n">
         <v>36611</v>
       </c>
       <c r="H27" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="n">
-        <v>27</v>
+      <c r="A28" s="4" t="s">
+        <v>211</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="G28" s="13" t="n">
         <v>36612</v>
       </c>
       <c r="H28" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="n">
-        <v>28</v>
+      <c r="A29" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="G29" s="13" t="n">
         <v>36613</v>
       </c>
       <c r="H29" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="n">
-        <v>29</v>
+      <c r="A30" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="G30" s="13" t="n">
         <v>36614</v>
       </c>
       <c r="H30" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="n">
-        <v>30</v>
+      <c r="A31" s="4" t="s">
+        <v>229</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="G31" s="13" t="n">
         <v>33388</v>
       </c>
       <c r="H31" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="n">
-        <v>31</v>
+      <c r="A32" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="G32" s="13" t="n">
         <v>33389</v>
@@ -5560,162 +5707,162 @@
         <v>3</v>
       </c>
       <c r="I32" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J32" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="J32" s="11" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="n">
-        <v>32</v>
+      <c r="A33" s="4" t="s">
+        <v>241</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="G33" s="13" t="n">
         <v>33390</v>
       </c>
       <c r="H33" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I33" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J33" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="J33" s="11" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="n">
-        <v>33</v>
+      <c r="A34" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="G34" s="13" t="n">
         <v>33391</v>
       </c>
       <c r="H34" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I34" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J34" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="J34" s="11" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="n">
-        <v>34</v>
+      <c r="A35" s="4" t="s">
+        <v>253</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>224</v>
+        <v>257</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="G35" s="13" t="n">
         <v>33576</v>
       </c>
       <c r="H35" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I35" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J35" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="J35" s="11" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="n">
-        <v>35</v>
+      <c r="A36" s="4" t="s">
+        <v>259</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c r="G36" s="13" t="n">
         <v>33577</v>
       </c>
       <c r="H36" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="n">
-        <v>36</v>
+      <c r="A37" s="4" t="s">
+        <v>265</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="G37" s="13" t="n">
         <v>33578</v>
@@ -5725,63 +5872,63 @@
         <v>4</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="n">
-        <v>37</v>
+      <c r="A38" s="4" t="s">
+        <v>271</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="G38" s="13" t="n">
         <v>33579</v>
       </c>
       <c r="H38" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="n">
-        <v>38</v>
+      <c r="A39" s="4" t="s">
+        <v>277</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="G39" s="13" t="n">
         <v>33185</v>
@@ -5791,63 +5938,63 @@
         <v>1</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="n">
-        <v>39</v>
+      <c r="A40" s="4" t="s">
+        <v>283</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>246</v>
+        <v>284</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>247</v>
+        <v>285</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>249</v>
+        <v>287</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>250</v>
+        <v>288</v>
       </c>
       <c r="G40" s="13" t="n">
         <v>33186</v>
       </c>
       <c r="H40" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I40" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J40" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="J40" s="11" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="n">
-        <v>40</v>
+      <c r="A41" s="4" t="s">
+        <v>289</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>251</v>
+        <v>290</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>252</v>
+        <v>291</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>254</v>
+        <v>293</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>255</v>
+        <v>294</v>
       </c>
       <c r="G41" s="13" t="n">
         <v>33187</v>
@@ -5857,63 +6004,63 @@
         <v>1</v>
       </c>
       <c r="I41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J41" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="J41" s="11" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="n">
-        <v>41</v>
+      <c r="A42" s="4" t="s">
+        <v>295</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>256</v>
+        <v>296</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="G42" s="13" t="n">
         <v>33004</v>
       </c>
       <c r="H42" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I42" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J42" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="J42" s="11" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="n">
-        <v>42</v>
+      <c r="A43" s="4" t="s">
+        <v>300</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>260</v>
+        <v>301</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>261</v>
+        <v>302</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>262</v>
+        <v>303</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>263</v>
+        <v>304</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>264</v>
+        <v>305</v>
       </c>
       <c r="G43" s="13" t="n">
         <v>33005</v>
@@ -5923,274 +6070,274 @@
         <v>3</v>
       </c>
       <c r="I43" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J43" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="J43" s="11" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="n">
-        <v>43</v>
+      <c r="A44" s="4" t="s">
+        <v>306</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>265</v>
+        <v>307</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>266</v>
+        <v>308</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>268</v>
+        <v>310</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="G44" s="13" t="n">
         <v>33006</v>
       </c>
       <c r="H44" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="n">
-        <v>44</v>
+      <c r="A45" s="4" t="s">
+        <v>312</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>270</v>
+        <v>313</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>271</v>
+        <v>314</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>272</v>
+        <v>315</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>273</v>
+        <v>316</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>274</v>
+        <v>317</v>
       </c>
       <c r="G45" s="13" t="n">
         <v>33007</v>
       </c>
       <c r="H45" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="n">
-        <v>45</v>
+      <c r="A46" s="4" t="s">
+        <v>318</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>275</v>
+        <v>319</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>276</v>
+        <v>320</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>277</v>
+        <v>321</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>279</v>
+        <v>323</v>
       </c>
       <c r="G46" s="13" t="n">
         <v>33008</v>
       </c>
       <c r="H46" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="n">
-        <v>46</v>
+      <c r="A47" s="4" t="s">
+        <v>324</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>280</v>
+        <v>325</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>281</v>
+        <v>326</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>282</v>
+        <v>327</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>283</v>
+        <v>328</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>284</v>
+        <v>329</v>
       </c>
       <c r="G47" s="13" t="n">
         <v>32979</v>
       </c>
       <c r="H47" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="n">
-        <v>47</v>
+      <c r="A48" s="4" t="s">
+        <v>330</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>285</v>
+        <v>331</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>286</v>
+        <v>332</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>287</v>
+        <v>333</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>288</v>
+        <v>334</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>289</v>
+        <v>335</v>
       </c>
       <c r="G48" s="13" t="n">
         <v>32980</v>
       </c>
       <c r="H48" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I48" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J48" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="J48" s="11" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="n">
-        <v>48</v>
+      <c r="A49" s="4" t="s">
+        <v>336</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>280</v>
+        <v>325</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>290</v>
+        <v>337</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>291</v>
+        <v>338</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>292</v>
+        <v>339</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="G49" s="13" t="n">
         <v>32981</v>
       </c>
       <c r="H49" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I49" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J49" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="J49" s="11" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="n">
-        <v>49</v>
+      <c r="A50" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>295</v>
+        <v>343</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>297</v>
+        <v>345</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>298</v>
+        <v>346</v>
       </c>
       <c r="G50" s="13" t="n">
         <v>32982</v>
       </c>
       <c r="H50" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I50" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J50" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="J50" s="11" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="n">
-        <v>50</v>
+      <c r="A51" s="4" t="s">
+        <v>347</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>299</v>
+        <v>348</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>300</v>
+        <v>349</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>301</v>
+        <v>350</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>302</v>
+        <v>351</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>303</v>
+        <v>352</v>
       </c>
       <c r="G51" s="13" t="n">
         <v>32983</v>
       </c>
       <c r="H51" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I51" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J51" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="J51" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6198,32 +6345,32 @@
         <v>51</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>304</v>
+        <v>353</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>305</v>
+        <v>354</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>306</v>
+        <v>355</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>307</v>
+        <v>356</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="G52" s="13" t="n">
         <v>35602</v>
       </c>
       <c r="H52" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6231,32 +6378,32 @@
         <v>52</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>312</v>
+        <v>361</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>313</v>
+        <v>362</v>
       </c>
       <c r="G53" s="13" t="n">
         <v>35603</v>
       </c>
       <c r="H53" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6264,32 +6411,32 @@
         <v>53</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>314</v>
+        <v>363</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>316</v>
+        <v>365</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>317</v>
+        <v>366</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>318</v>
+        <v>367</v>
       </c>
       <c r="G54" s="13" t="n">
         <v>35604</v>
       </c>
       <c r="H54" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6297,32 +6444,32 @@
         <v>54</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>319</v>
+        <v>368</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>320</v>
+        <v>369</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>321</v>
+        <v>370</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>322</v>
+        <v>371</v>
       </c>
       <c r="G55" s="13" t="n">
         <v>35605</v>
       </c>
       <c r="H55" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J55" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6330,32 +6477,32 @@
         <v>55</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>323</v>
+        <v>372</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>324</v>
+        <v>373</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>325</v>
+        <v>374</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>326</v>
+        <v>375</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>327</v>
+        <v>376</v>
       </c>
       <c r="G56" s="13" t="n">
         <v>35606</v>
       </c>
       <c r="H56" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J56" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6363,32 +6510,32 @@
         <v>56</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>328</v>
+        <v>377</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>329</v>
+        <v>378</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>331</v>
+        <v>380</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>332</v>
+        <v>381</v>
       </c>
       <c r="G57" s="13" t="n">
         <v>35699</v>
       </c>
       <c r="H57" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I57" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J57" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="J57" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6396,32 +6543,32 @@
         <v>57</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>333</v>
+        <v>382</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>334</v>
+        <v>383</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>335</v>
+        <v>384</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>336</v>
+        <v>385</v>
       </c>
       <c r="G58" s="13" t="n">
         <v>35700</v>
       </c>
       <c r="H58" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I58" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J58" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="J58" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6429,32 +6576,32 @@
         <v>58</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>337</v>
+        <v>386</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>338</v>
+        <v>387</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>339</v>
+        <v>388</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>340</v>
+        <v>389</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>341</v>
+        <v>390</v>
       </c>
       <c r="G59" s="13" t="n">
         <v>35701</v>
       </c>
       <c r="H59" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I59" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J59" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="J59" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6462,19 +6609,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>342</v>
+        <v>391</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>343</v>
+        <v>392</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>344</v>
+        <v>393</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>345</v>
+        <v>394</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>346</v>
+        <v>395</v>
       </c>
       <c r="G60" s="13" t="n">
         <v>35702</v>
@@ -6484,10 +6631,10 @@
         <v>3</v>
       </c>
       <c r="I60" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J60" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="J60" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6495,32 +6642,32 @@
         <v>60</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>347</v>
+        <v>396</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>348</v>
+        <v>397</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>349</v>
+        <v>398</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>350</v>
+        <v>399</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
       <c r="G61" s="13" t="n">
         <v>35641</v>
       </c>
       <c r="H61" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I61" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J61" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="J61" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6528,19 +6675,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>352</v>
+        <v>401</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>353</v>
+        <v>402</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>354</v>
+        <v>403</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>355</v>
+        <v>404</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>356</v>
+        <v>405</v>
       </c>
       <c r="G62" s="13" t="n">
         <v>35642</v>
@@ -6550,10 +6697,10 @@
         <v>3</v>
       </c>
       <c r="I62" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J62" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="J62" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6561,19 +6708,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>357</v>
+        <v>406</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>358</v>
+        <v>407</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>359</v>
+        <v>408</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>360</v>
+        <v>409</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>361</v>
+        <v>410</v>
       </c>
       <c r="G63" s="13" t="n">
         <v>35490</v>
@@ -6583,10 +6730,10 @@
         <v>2</v>
       </c>
       <c r="I63" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J63" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="J63" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6594,19 +6741,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>265</v>
+        <v>307</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>362</v>
+        <v>411</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>363</v>
+        <v>412</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>364</v>
+        <v>413</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>365</v>
+        <v>414</v>
       </c>
       <c r="G64" s="13" t="n">
         <v>35491</v>
@@ -6616,10 +6763,10 @@
         <v>1</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J64" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6627,19 +6774,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>366</v>
+        <v>415</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>367</v>
+        <v>416</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>368</v>
+        <v>417</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>369</v>
+        <v>418</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>370</v>
+        <v>419</v>
       </c>
       <c r="G65" s="13" t="n">
         <v>35492</v>
@@ -6649,10 +6796,10 @@
         <v>1</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J65" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6660,32 +6807,32 @@
         <v>65</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>371</v>
+        <v>420</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>372</v>
+        <v>421</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>373</v>
+        <v>422</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>374</v>
+        <v>423</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>375</v>
+        <v>424</v>
       </c>
       <c r="G66" s="13" t="n">
         <v>35493</v>
       </c>
       <c r="H66" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I66" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J66" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6693,19 +6840,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>376</v>
+        <v>425</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>377</v>
+        <v>426</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>378</v>
+        <v>427</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>379</v>
+        <v>428</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>380</v>
+        <v>429</v>
       </c>
       <c r="G67" s="13" t="n">
         <v>33974</v>
@@ -6715,10 +6862,10 @@
         <v>1</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J67" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6726,19 +6873,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>323</v>
+        <v>372</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>381</v>
+        <v>430</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>382</v>
+        <v>431</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>383</v>
+        <v>432</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>384</v>
+        <v>433</v>
       </c>
       <c r="G68" s="13" t="n">
         <v>33975</v>
@@ -6748,10 +6895,10 @@
         <v>3</v>
       </c>
       <c r="I68" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J68" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="J68" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6759,32 +6906,32 @@
         <v>68</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>385</v>
+        <v>434</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>387</v>
+        <v>436</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>388</v>
+        <v>437</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>389</v>
+        <v>438</v>
       </c>
       <c r="G69" s="13" t="n">
         <v>33976</v>
       </c>
       <c r="H69" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I69" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J69" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="J69" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6792,32 +6939,32 @@
         <v>69</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>390</v>
+        <v>439</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>391</v>
+        <v>440</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>392</v>
+        <v>441</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>393</v>
+        <v>442</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>394</v>
+        <v>443</v>
       </c>
       <c r="G70" s="13" t="n">
         <v>33977</v>
       </c>
       <c r="H70" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I70" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J70" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="J70" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6825,19 +6972,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>246</v>
+        <v>284</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>395</v>
+        <v>444</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>396</v>
+        <v>445</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>397</v>
+        <v>446</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="G71" s="13" t="n">
         <v>33978</v>
@@ -6847,10 +6994,10 @@
         <v>1</v>
       </c>
       <c r="I71" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J71" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="J71" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6858,19 +7005,19 @@
         <v>71</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>401</v>
+        <v>450</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>402</v>
+        <v>451</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>403</v>
+        <v>452</v>
       </c>
       <c r="G72" s="13" t="n">
         <v>34160</v>
@@ -6880,10 +7027,10 @@
         <v>2</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J72" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6891,32 +7038,32 @@
         <v>72</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>404</v>
+        <v>453</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>405</v>
+        <v>454</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>406</v>
+        <v>455</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>407</v>
+        <v>456</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>408</v>
+        <v>457</v>
       </c>
       <c r="G73" s="13" t="n">
         <v>34161</v>
       </c>
       <c r="H73" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J73" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6924,19 +7071,19 @@
         <v>73</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>409</v>
+        <v>458</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>410</v>
+        <v>459</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>411</v>
+        <v>460</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>412</v>
+        <v>461</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>413</v>
+        <v>462</v>
       </c>
       <c r="G74" s="13" t="n">
         <v>34162</v>
@@ -6946,10 +7093,10 @@
         <v>1</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J74" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6957,32 +7104,32 @@
         <v>74</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>414</v>
+        <v>463</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>415</v>
+        <v>464</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>416</v>
+        <v>465</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>417</v>
+        <v>466</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>418</v>
+        <v>467</v>
       </c>
       <c r="G75" s="13" t="n">
         <v>34163</v>
       </c>
       <c r="H75" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J75" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6990,19 +7137,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>420</v>
+        <v>469</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>421</v>
+        <v>470</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>422</v>
+        <v>471</v>
       </c>
       <c r="G76" s="13" t="n">
         <v>34164</v>
@@ -7012,10 +7159,10 @@
         <v>3</v>
       </c>
       <c r="I76" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J76" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="J76" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7023,32 +7170,32 @@
         <v>76</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>423</v>
+        <v>472</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>424</v>
+        <v>473</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>425</v>
+        <v>474</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>426</v>
+        <v>475</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>427</v>
+        <v>476</v>
       </c>
       <c r="G77" s="13" t="n">
         <v>34165</v>
       </c>
       <c r="H77" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J77" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="J77" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7056,32 +7203,32 @@
         <v>77</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>428</v>
+        <v>477</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>429</v>
+        <v>478</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>430</v>
+        <v>479</v>
       </c>
       <c r="G78" s="13" t="n">
         <v>34988</v>
       </c>
       <c r="H78" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J78" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="J78" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7089,32 +7236,32 @@
         <v>78</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>431</v>
+        <v>480</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>432</v>
+        <v>481</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>433</v>
+        <v>482</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>434</v>
+        <v>483</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>435</v>
+        <v>484</v>
       </c>
       <c r="G79" s="13" t="n">
         <v>34989</v>
       </c>
       <c r="H79" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I79" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J79" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="J79" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7122,32 +7269,32 @@
         <v>79</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>436</v>
+        <v>485</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>437</v>
+        <v>486</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>439</v>
+        <v>488</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>440</v>
+        <v>489</v>
       </c>
       <c r="G80" s="13" t="n">
         <v>34990</v>
       </c>
       <c r="H80" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J80" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="J80" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7155,19 +7302,19 @@
         <v>80</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>441</v>
+        <v>490</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>443</v>
+        <v>492</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>444</v>
+        <v>493</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>445</v>
+        <v>494</v>
       </c>
       <c r="G81" s="13" t="n">
         <v>34991</v>
@@ -7177,10 +7324,10 @@
         <v>2</v>
       </c>
       <c r="I81" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J81" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="J81" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7188,32 +7335,32 @@
         <v>81</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>446</v>
+        <v>495</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>447</v>
+        <v>496</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>448</v>
+        <v>497</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>449</v>
+        <v>498</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>450</v>
+        <v>499</v>
       </c>
       <c r="G82" s="13" t="n">
         <v>34992</v>
       </c>
       <c r="H82" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I82" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J82" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="J82" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7221,32 +7368,32 @@
         <v>82</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>451</v>
+        <v>500</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>452</v>
+        <v>501</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>453</v>
+        <v>502</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>454</v>
+        <v>503</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>455</v>
+        <v>504</v>
       </c>
       <c r="G83" s="13" t="n">
         <v>34993</v>
       </c>
       <c r="H83" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I83" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J83" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="J83" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7254,32 +7401,32 @@
         <v>83</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>456</v>
+        <v>505</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>457</v>
+        <v>506</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>458</v>
+        <v>507</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>459</v>
+        <v>508</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>460</v>
+        <v>509</v>
       </c>
       <c r="G84" s="13" t="n">
         <v>34994</v>
       </c>
       <c r="H84" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I84" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J84" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="J84" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7287,32 +7434,32 @@
         <v>84</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>461</v>
+        <v>510</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>462</v>
+        <v>511</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>463</v>
+        <v>512</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>464</v>
+        <v>513</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>465</v>
+        <v>514</v>
       </c>
       <c r="G85" s="13" t="n">
         <v>35026</v>
       </c>
       <c r="H85" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I85" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J85" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="J85" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7320,32 +7467,32 @@
         <v>85</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>466</v>
+        <v>515</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>467</v>
+        <v>516</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>468</v>
+        <v>517</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>469</v>
+        <v>518</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>470</v>
+        <v>519</v>
       </c>
       <c r="G86" s="13" t="n">
         <v>35027</v>
       </c>
       <c r="H86" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I86" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J86" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="J86" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7353,32 +7500,32 @@
         <v>86</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>471</v>
+        <v>520</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>472</v>
+        <v>521</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>473</v>
+        <v>522</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>474</v>
+        <v>523</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>475</v>
+        <v>524</v>
       </c>
       <c r="G87" s="13" t="n">
         <v>35028</v>
       </c>
       <c r="H87" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J87" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="J87" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7386,32 +7533,32 @@
         <v>87</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>476</v>
+        <v>525</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>477</v>
+        <v>526</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>478</v>
+        <v>527</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>479</v>
+        <v>528</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>480</v>
+        <v>529</v>
       </c>
       <c r="G88" s="13" t="n">
         <v>35029</v>
       </c>
       <c r="H88" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I88" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J88" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="J88" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7419,32 +7566,32 @@
         <v>88</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>481</v>
+        <v>530</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>482</v>
+        <v>531</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>483</v>
+        <v>532</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>484</v>
+        <v>533</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>485</v>
+        <v>534</v>
       </c>
       <c r="G89" s="13" t="n">
         <v>35030</v>
       </c>
       <c r="H89" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I89" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J89" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="J89" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7452,32 +7599,32 @@
         <v>89</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>486</v>
+        <v>535</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>487</v>
+        <v>536</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>488</v>
+        <v>537</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>489</v>
+        <v>538</v>
       </c>
       <c r="G90" s="13" t="n">
         <v>38349</v>
       </c>
       <c r="H90" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J90" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="J90" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7485,32 +7632,32 @@
         <v>90</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>490</v>
+        <v>539</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>491</v>
+        <v>540</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>492</v>
+        <v>541</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>493</v>
+        <v>542</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>494</v>
+        <v>543</v>
       </c>
       <c r="G91" s="13" t="n">
         <v>38350</v>
       </c>
       <c r="H91" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I91" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J91" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="J91" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7518,32 +7665,32 @@
         <v>91</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>495</v>
+        <v>544</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>496</v>
+        <v>545</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>497</v>
+        <v>546</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>498</v>
+        <v>547</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>499</v>
+        <v>548</v>
       </c>
       <c r="G92" s="13" t="n">
         <v>38351</v>
       </c>
       <c r="H92" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J92" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="J92" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7551,32 +7698,32 @@
         <v>92</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>500</v>
+        <v>549</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>501</v>
+        <v>550</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>502</v>
+        <v>551</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>503</v>
+        <v>552</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>504</v>
+        <v>553</v>
       </c>
       <c r="G93" s="13" t="n">
         <v>38352</v>
       </c>
       <c r="H93" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I93" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J93" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="J93" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7584,32 +7731,32 @@
         <v>93</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>505</v>
+        <v>554</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>506</v>
+        <v>555</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>507</v>
+        <v>556</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>508</v>
+        <v>557</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>509</v>
+        <v>558</v>
       </c>
       <c r="G94" s="13" t="n">
         <v>38353</v>
       </c>
       <c r="H94" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I94" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J94" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="J94" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7617,19 +7764,19 @@
         <v>94</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>510</v>
+        <v>559</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>511</v>
+        <v>560</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>512</v>
+        <v>561</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>513</v>
+        <v>562</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>514</v>
+        <v>563</v>
       </c>
       <c r="G95" s="13" t="n">
         <v>30165</v>
@@ -7639,10 +7786,10 @@
         <v>1</v>
       </c>
       <c r="I95" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J95" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="J95" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7650,32 +7797,32 @@
         <v>95</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>515</v>
+        <v>564</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>516</v>
+        <v>565</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>517</v>
+        <v>566</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>518</v>
+        <v>567</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>519</v>
+        <v>568</v>
       </c>
       <c r="G96" s="13" t="n">
         <v>30166</v>
       </c>
       <c r="H96" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I96" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J96" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="J96" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7683,19 +7830,19 @@
         <v>96</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>520</v>
+        <v>569</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>521</v>
+        <v>570</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>522</v>
+        <v>571</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>523</v>
+        <v>572</v>
       </c>
       <c r="G97" s="13" t="n">
         <v>31294</v>
@@ -7705,10 +7852,10 @@
         <v>2</v>
       </c>
       <c r="I97" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J97" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="J97" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7716,32 +7863,32 @@
         <v>97</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>524</v>
+        <v>573</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>525</v>
+        <v>574</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>526</v>
+        <v>575</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>527</v>
+        <v>576</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>528</v>
+        <v>577</v>
       </c>
       <c r="G98" s="13" t="n">
         <v>31295</v>
       </c>
       <c r="H98" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I98" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J98" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="J98" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7749,32 +7896,32 @@
         <v>98</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>285</v>
+        <v>331</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>529</v>
+        <v>578</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>530</v>
+        <v>579</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>531</v>
+        <v>580</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>532</v>
+        <v>581</v>
       </c>
       <c r="G99" s="13" t="n">
         <v>31296</v>
       </c>
       <c r="H99" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I99" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J99" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="J99" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7782,19 +7929,19 @@
         <v>99</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>510</v>
+        <v>559</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>533</v>
+        <v>582</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>534</v>
+        <v>583</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>535</v>
+        <v>584</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>536</v>
+        <v>585</v>
       </c>
       <c r="G100" s="13" t="n">
         <v>31297</v>
@@ -7804,10 +7951,10 @@
         <v>3</v>
       </c>
       <c r="I100" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J100" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="J100" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7815,19 +7962,19 @@
         <v>100</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>486</v>
+        <v>535</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>537</v>
+        <v>586</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>538</v>
+        <v>587</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>539</v>
+        <v>588</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>540</v>
+        <v>589</v>
       </c>
       <c r="G101" s="13" t="n">
         <v>31298</v>
@@ -7837,10 +7984,10 @@
         <v>4</v>
       </c>
       <c r="I101" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J101" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="J101" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7848,32 +7995,32 @@
         <v>101</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>541</v>
+        <v>590</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>542</v>
+        <v>591</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>543</v>
+        <v>592</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>544</v>
+        <v>593</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>545</v>
+        <v>594</v>
       </c>
       <c r="G102" s="13" t="n">
         <v>31299</v>
       </c>
       <c r="H102" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J102" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8006,10 +8153,9 @@
       <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="9.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.14"/>
@@ -8037,7 +8183,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>546</v>
+        <v>595</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>8</v>
@@ -8080,11 +8226,11 @@
       </c>
       <c r="F3" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G3" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8114,7 +8260,7 @@
       </c>
       <c r="F4" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G4" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8144,11 +8290,11 @@
       </c>
       <c r="E5" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G5" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8160,7 +8306,7 @@
       </c>
       <c r="I5" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8178,11 +8324,11 @@
       </c>
       <c r="E6" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G6" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8190,7 +8336,7 @@
       </c>
       <c r="H6" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8212,15 +8358,15 @@
       </c>
       <c r="E7" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F7" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G7" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8228,7 +8374,7 @@
       </c>
       <c r="I7" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8246,23 +8392,23 @@
       </c>
       <c r="E8" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G8" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8274,22 +8420,22 @@
       </c>
       <c r="C9" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>3</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
+        <v>3</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>6</v>
       </c>
-      <c r="D9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
-      </c>
       <c r="G9" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8309,22 +8455,22 @@
       </c>
       <c r="C10" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G10" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8332,7 +8478,7 @@
       </c>
       <c r="I10" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8344,7 +8490,7 @@
       </c>
       <c r="C11" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>1</v>
@@ -8359,15 +8505,15 @@
       </c>
       <c r="G11" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8379,30 +8525,30 @@
       </c>
       <c r="C12" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D12" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E12" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F12" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G12" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8414,18 +8560,18 @@
       </c>
       <c r="C13" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E13" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F13" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G13" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8449,7 +8595,7 @@
       </c>
       <c r="C14" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>1</v>
@@ -8460,7 +8606,7 @@
       </c>
       <c r="F14" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G14" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8468,11 +8614,11 @@
       </c>
       <c r="H14" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8484,18 +8630,18 @@
       </c>
       <c r="C15" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E15" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G15" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8519,30 +8665,30 @@
       </c>
       <c r="C16" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E16" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F16" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G16" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8554,30 +8700,30 @@
       </c>
       <c r="C17" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E17" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G17" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8589,26 +8735,26 @@
       </c>
       <c r="C18" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E18" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F18" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G18" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8624,26 +8770,26 @@
       </c>
       <c r="C19" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>3</v>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
+        <v>3</v>
+      </c>
+      <c r="F19" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>6</v>
       </c>
-      <c r="D19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
-      </c>
-      <c r="F19" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
-      </c>
       <c r="G19" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8659,26 +8805,26 @@
       </c>
       <c r="C20" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D20" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E20" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G20" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8694,18 +8840,18 @@
       </c>
       <c r="C21" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E21" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G21" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8713,7 +8859,7 @@
       </c>
       <c r="H21" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8729,30 +8875,30 @@
       </c>
       <c r="C22" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E22" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F22" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G22" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8764,22 +8910,22 @@
       </c>
       <c r="C23" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>5</v>
+      </c>
+      <c r="D23" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
+        <v>4</v>
+      </c>
+      <c r="F23" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>7</v>
       </c>
-      <c r="D23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
-      </c>
-      <c r="F23" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
-      </c>
       <c r="G23" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8787,7 +8933,7 @@
       </c>
       <c r="I23" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8799,7 +8945,7 @@
       </c>
       <c r="C24" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D24" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -8807,15 +8953,15 @@
       </c>
       <c r="E24" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F24" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G24" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8823,7 +8969,7 @@
       </c>
       <c r="I24" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8835,19 +8981,19 @@
       </c>
       <c r="C25" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E25" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G25" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8855,11 +9001,11 @@
       </c>
       <c r="H25" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8871,7 +9017,7 @@
       </c>
       <c r="C26" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -8883,19 +9029,19 @@
       </c>
       <c r="F26" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G26" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H26" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8907,27 +9053,27 @@
       </c>
       <c r="C27" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D27" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E27" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G27" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8943,7 +9089,7 @@
       </c>
       <c r="C28" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D28" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -8955,7 +9101,7 @@
       </c>
       <c r="F28" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8963,7 +9109,7 @@
       </c>
       <c r="H28" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8979,11 +9125,11 @@
       </c>
       <c r="C29" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D29" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -8991,11 +9137,11 @@
       </c>
       <c r="F29" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G29" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H29" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9015,19 +9161,19 @@
       </c>
       <c r="C30" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D30" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E30" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F30" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G30" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9035,11 +9181,11 @@
       </c>
       <c r="H30" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9051,27 +9197,27 @@
       </c>
       <c r="C31" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D31" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E31" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G31" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9087,31 +9233,31 @@
       </c>
       <c r="C32" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E32" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G32" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9123,15 +9269,15 @@
       </c>
       <c r="C33" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D33" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E33" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F33" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -9139,15 +9285,15 @@
       </c>
       <c r="G33" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9163,16 +9309,16 @@
       </c>
       <c r="D34" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E34" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
+        <v>3</v>
+      </c>
+      <c r="F34" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>4</v>
       </c>
-      <c r="F34" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
-      </c>
       <c r="G34" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
         <v>2</v>
@@ -9183,7 +9329,7 @@
       </c>
       <c r="I34" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9195,19 +9341,19 @@
       </c>
       <c r="C35" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D35" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E35" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F35" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G35" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9219,7 +9365,7 @@
       </c>
       <c r="I35" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9231,19 +9377,19 @@
       </c>
       <c r="C36" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D36" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>12</v>
+      </c>
+      <c r="E36" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
+        <v>4</v>
+      </c>
+      <c r="F36" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>6</v>
-      </c>
-      <c r="E36" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
-      </c>
-      <c r="F36" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
       </c>
       <c r="G36" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9267,15 +9413,15 @@
       </c>
       <c r="C37" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E37" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F37" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -9283,15 +9429,15 @@
       </c>
       <c r="G37" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9303,23 +9449,23 @@
       </c>
       <c r="C38" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D38" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E38" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F38" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G38" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H38" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9327,7 +9473,7 @@
       </c>
       <c r="I38" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9339,19 +9485,19 @@
       </c>
       <c r="C39" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E39" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F39" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G39" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9359,7 +9505,7 @@
       </c>
       <c r="H39" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9383,11 +9529,11 @@
       </c>
       <c r="E40" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G40" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9399,7 +9545,7 @@
       </c>
       <c r="I40" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9411,23 +9557,23 @@
       </c>
       <c r="C41" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D41" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E41" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F41" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G41" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9447,19 +9593,19 @@
       </c>
       <c r="C42" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D42" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E42" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F42" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G42" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9467,11 +9613,11 @@
       </c>
       <c r="H42" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9483,19 +9629,19 @@
       </c>
       <c r="C43" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D43" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E43" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
+        <v>2</v>
+      </c>
+      <c r="F43" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>3</v>
-      </c>
-      <c r="F43" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
       </c>
       <c r="G43" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9519,11 +9665,11 @@
       </c>
       <c r="C44" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D44" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E44" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -9531,11 +9677,11 @@
       </c>
       <c r="F44" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G44" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H44" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9555,31 +9701,31 @@
       </c>
       <c r="C45" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>6</v>
+      </c>
+      <c r="D45" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>4</v>
       </c>
-      <c r="D45" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
-      </c>
       <c r="E45" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G45" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H45" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9595,7 +9741,7 @@
       </c>
       <c r="D46" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E46" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -9603,7 +9749,7 @@
       </c>
       <c r="F46" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G46" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9627,19 +9773,19 @@
       </c>
       <c r="C47" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F47" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G47" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9663,19 +9809,19 @@
       </c>
       <c r="C48" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D48" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E48" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F48" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G48" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9703,19 +9849,19 @@
       </c>
       <c r="D49" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E49" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F49" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G49" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H49" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9723,7 +9869,7 @@
       </c>
       <c r="I49" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9735,19 +9881,19 @@
       </c>
       <c r="C50" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D50" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E50" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F50" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G50" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9755,7 +9901,7 @@
       </c>
       <c r="H50" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9771,19 +9917,19 @@
       </c>
       <c r="C51" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D51" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E51" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F51" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G51" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9807,23 +9953,23 @@
       </c>
       <c r="C52" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>1</v>
+      </c>
+      <c r="E52" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
+        <v>4</v>
+      </c>
+      <c r="F52" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>9</v>
       </c>
-      <c r="E52" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
-      </c>
-      <c r="F52" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
-      </c>
       <c r="G52" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H52" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9831,7 +9977,7 @@
       </c>
       <c r="I52" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9847,7 +9993,7 @@
       </c>
       <c r="D53" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E53" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -9855,11 +10001,11 @@
       </c>
       <c r="F53" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G53" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H53" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9867,7 +10013,7 @@
       </c>
       <c r="I53" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9883,7 +10029,7 @@
       </c>
       <c r="D54" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E54" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -9891,7 +10037,7 @@
       </c>
       <c r="F54" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G54" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9899,7 +10045,7 @@
       </c>
       <c r="H54" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9915,23 +10061,23 @@
       </c>
       <c r="C55" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>9</v>
+      </c>
+      <c r="E55" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
         <v>4</v>
       </c>
-      <c r="E55" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
-      </c>
       <c r="F55" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G55" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H55" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9951,19 +10097,19 @@
       </c>
       <c r="C56" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D56" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E56" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F56" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G56" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9987,11 +10133,11 @@
       </c>
       <c r="C57" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D57" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E57" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -9999,15 +10145,15 @@
       </c>
       <c r="F57" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G57" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H57" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10027,11 +10173,11 @@
       </c>
       <c r="D58" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E58" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F58" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -10039,7 +10185,7 @@
       </c>
       <c r="G58" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H58" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10047,7 +10193,7 @@
       </c>
       <c r="I58" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10059,11 +10205,11 @@
       </c>
       <c r="C59" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E59" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -10071,7 +10217,7 @@
       </c>
       <c r="F59" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G59" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10079,7 +10225,7 @@
       </c>
       <c r="H59" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10095,23 +10241,23 @@
       </c>
       <c r="C60" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D60" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E60" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F60" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G60" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H60" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10119,7 +10265,7 @@
       </c>
       <c r="I60" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10131,7 +10277,7 @@
       </c>
       <c r="C61" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D61" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -10143,7 +10289,7 @@
       </c>
       <c r="F61" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G61" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10155,7 +10301,7 @@
       </c>
       <c r="I61" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10171,15 +10317,15 @@
       </c>
       <c r="D62" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E62" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F62" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G62" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10203,19 +10349,19 @@
       </c>
       <c r="C63" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D63" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E63" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F63" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G63" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10223,7 +10369,7 @@
       </c>
       <c r="H63" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10239,19 +10385,19 @@
       </c>
       <c r="C64" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>1</v>
+      </c>
+      <c r="D64" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>3</v>
       </c>
-      <c r="D64" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
-      </c>
       <c r="E64" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F64" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G64" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10259,11 +10405,11 @@
       </c>
       <c r="H64" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10279,27 +10425,27 @@
       </c>
       <c r="D65" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E65" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F65" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G65" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H65" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10315,19 +10461,19 @@
       </c>
       <c r="D66" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E66" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F66" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G66" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H66" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10335,7 +10481,7 @@
       </c>
       <c r="I66" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10351,23 +10497,23 @@
       </c>
       <c r="D67" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E67" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F67" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G67" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H67" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10383,31 +10529,31 @@
       </c>
       <c r="C68" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E68" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F68" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G68" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H68" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10419,23 +10565,23 @@
       </c>
       <c r="C69" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D69" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E69" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F69" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G69" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H69" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10443,7 +10589,7 @@
       </c>
       <c r="I69" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10455,11 +10601,11 @@
       </c>
       <c r="C70" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E70" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -10467,11 +10613,11 @@
       </c>
       <c r="F70" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G70" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H70" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10479,7 +10625,7 @@
       </c>
       <c r="I70" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10491,31 +10637,31 @@
       </c>
       <c r="C71" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D71" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>9</v>
+      </c>
+      <c r="E71" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
         <v>3</v>
       </c>
-      <c r="E71" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
-      </c>
       <c r="F71" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G71" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H71" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10531,15 +10677,15 @@
       </c>
       <c r="D72" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E72" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F72" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G72" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10547,11 +10693,11 @@
       </c>
       <c r="H72" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10563,23 +10709,23 @@
       </c>
       <c r="C73" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E73" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F73" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G73" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H73" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10599,19 +10745,19 @@
       </c>
       <c r="C74" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>6</v>
+      </c>
+      <c r="D74" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>7</v>
       </c>
-      <c r="D74" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
+      <c r="E74" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
         <v>3</v>
       </c>
-      <c r="E74" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
-      </c>
       <c r="F74" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G74" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10619,11 +10765,11 @@
       </c>
       <c r="H74" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10635,19 +10781,19 @@
       </c>
       <c r="C75" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>1</v>
+      </c>
+      <c r="D75" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>3</v>
       </c>
-      <c r="D75" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
-      </c>
       <c r="E75" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
         <v>1</v>
       </c>
       <c r="F75" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G75" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10671,11 +10817,11 @@
       </c>
       <c r="C76" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D76" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E76" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -10683,7 +10829,7 @@
       </c>
       <c r="F76" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G76" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10691,11 +10837,11 @@
       </c>
       <c r="H76" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10707,19 +10853,19 @@
       </c>
       <c r="C77" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D77" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E77" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F77" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G77" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10727,7 +10873,7 @@
       </c>
       <c r="H77" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10743,23 +10889,23 @@
       </c>
       <c r="C78" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D78" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E78" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F78" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G78" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H78" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10767,7 +10913,7 @@
       </c>
       <c r="I78" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10779,19 +10925,19 @@
       </c>
       <c r="C79" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D79" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E79" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F79" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G79" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10799,7 +10945,7 @@
       </c>
       <c r="H79" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10819,19 +10965,19 @@
       </c>
       <c r="D80" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>7</v>
+      </c>
+      <c r="E80" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
         <v>4</v>
       </c>
-      <c r="E80" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
-      </c>
       <c r="F80" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G80" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H80" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10851,19 +10997,19 @@
       </c>
       <c r="C81" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D81" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E81" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F81" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G81" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10887,23 +11033,23 @@
       </c>
       <c r="C82" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>5</v>
+      </c>
+      <c r="D82" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>11</v>
+      </c>
+      <c r="E82" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
         <v>4</v>
       </c>
-      <c r="D82" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
-      </c>
-      <c r="E82" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
-      </c>
       <c r="F82" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G82" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H82" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10923,23 +11069,23 @@
       </c>
       <c r="C83" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>6</v>
+      </c>
+      <c r="E83" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
+        <v>1</v>
+      </c>
+      <c r="F83" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>7</v>
       </c>
-      <c r="E83" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
-      </c>
-      <c r="F83" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
-      </c>
       <c r="G83" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H83" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10947,7 +11093,7 @@
       </c>
       <c r="I83" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10959,19 +11105,19 @@
       </c>
       <c r="C84" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D84" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E84" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F84" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G84" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10983,7 +11129,7 @@
       </c>
       <c r="I84" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10995,7 +11141,7 @@
       </c>
       <c r="C85" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D85" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -11003,15 +11149,15 @@
       </c>
       <c r="E85" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F85" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G85" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H85" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11019,7 +11165,7 @@
       </c>
       <c r="I85" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11031,19 +11177,19 @@
       </c>
       <c r="C86" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D86" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E86" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F86" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G86" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11051,11 +11197,11 @@
       </c>
       <c r="H86" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11071,7 +11217,7 @@
       </c>
       <c r="D87" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E87" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -11079,7 +11225,7 @@
       </c>
       <c r="F87" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G87" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11103,15 +11249,15 @@
       </c>
       <c r="C88" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D88" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E88" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F88" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -11139,23 +11285,23 @@
       </c>
       <c r="C89" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D89" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E89" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
+        <v>1</v>
+      </c>
+      <c r="F89" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>4</v>
       </c>
-      <c r="F89" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
-      </c>
       <c r="G89" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H89" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11163,7 +11309,7 @@
       </c>
       <c r="I89" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11175,19 +11321,19 @@
       </c>
       <c r="C90" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D90" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E90" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F90" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G90" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11211,31 +11357,31 @@
       </c>
       <c r="C91" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D91" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>9</v>
+      </c>
+      <c r="E91" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
+        <v>1</v>
+      </c>
+      <c r="F91" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>5</v>
       </c>
-      <c r="E91" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
-      </c>
-      <c r="F91" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
-      </c>
       <c r="G91" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H91" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11247,7 +11393,7 @@
       </c>
       <c r="C92" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -11255,15 +11401,15 @@
       </c>
       <c r="E92" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F92" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G92" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H92" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11271,7 +11417,7 @@
       </c>
       <c r="I92" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11287,7 +11433,7 @@
       </c>
       <c r="D93" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E93" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -11295,7 +11441,7 @@
       </c>
       <c r="F93" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G93" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11307,7 +11453,7 @@
       </c>
       <c r="I93" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11327,7 +11473,7 @@
       </c>
       <c r="E94" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F94" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -11355,31 +11501,31 @@
       </c>
       <c r="C95" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D95" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E95" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F95" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G95" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H95" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11391,19 +11537,19 @@
       </c>
       <c r="C96" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>2</v>
+      </c>
+      <c r="D96" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>8</v>
+      </c>
+      <c r="E96" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
         <v>4</v>
       </c>
-      <c r="D96" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
-      </c>
-      <c r="E96" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
-      </c>
       <c r="F96" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G96" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11411,11 +11557,11 @@
       </c>
       <c r="H96" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11427,15 +11573,15 @@
       </c>
       <c r="C97" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D97" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E97" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F97" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -11443,11 +11589,11 @@
       </c>
       <c r="G97" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H97" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11463,19 +11609,19 @@
       </c>
       <c r="C98" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>7</v>
+      </c>
+      <c r="D98" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>3</v>
       </c>
-      <c r="D98" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
-      </c>
       <c r="E98" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F98" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G98" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11483,11 +11629,11 @@
       </c>
       <c r="H98" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11499,19 +11645,19 @@
       </c>
       <c r="C99" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D99" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E99" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F99" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G99" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11523,7 +11669,7 @@
       </c>
       <c r="I99" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11535,23 +11681,23 @@
       </c>
       <c r="C100" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D100" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E100" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F100" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G100" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H100" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11571,19 +11717,19 @@
       </c>
       <c r="C101" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E101" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F101" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G101" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11591,11 +11737,11 @@
       </c>
       <c r="H101" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11607,19 +11753,19 @@
       </c>
       <c r="C102" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D102" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>5</v>
+      </c>
+      <c r="E102" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
         <v>4</v>
       </c>
-      <c r="E102" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
+      <c r="F102" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>3</v>
-      </c>
-      <c r="F102" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
       </c>
       <c r="G102" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>

--- a/xlsx/loaddata.xlsx
+++ b/xlsx/loaddata.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="568">
   <si>
     <t xml:space="preserve">BloodType</t>
   </si>
@@ -210,9 +210,6 @@
     <t xml:space="preserve">profile_image</t>
   </si>
   <si>
-    <t xml:space="preserve">b2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chadaporn</t>
   </si>
   <si>
@@ -234,9 +231,6 @@
     <t xml:space="preserve">M</t>
   </si>
   <si>
-    <t xml:space="preserve">b3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sirilak</t>
   </si>
   <si>
@@ -252,9 +246,6 @@
     <t xml:space="preserve">bornborn124</t>
   </si>
   <si>
-    <t xml:space="preserve">b4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Alisa</t>
   </si>
   <si>
@@ -270,9 +261,6 @@
     <t xml:space="preserve">bornborn125</t>
   </si>
   <si>
-    <t xml:space="preserve">b5</t>
-  </si>
-  <si>
     <t xml:space="preserve">thidarat</t>
   </si>
   <si>
@@ -288,9 +276,6 @@
     <t xml:space="preserve">bornborn126</t>
   </si>
   <si>
-    <t xml:space="preserve">b6</t>
-  </si>
-  <si>
     <t xml:space="preserve">Justin</t>
   </si>
   <si>
@@ -306,9 +291,6 @@
     <t xml:space="preserve">bornborn127</t>
   </si>
   <si>
-    <t xml:space="preserve">b7</t>
-  </si>
-  <si>
     <t xml:space="preserve">Liam</t>
   </si>
   <si>
@@ -324,9 +306,6 @@
     <t xml:space="preserve">bornborn128</t>
   </si>
   <si>
-    <t xml:space="preserve">b8</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ava</t>
   </si>
   <si>
@@ -342,9 +321,6 @@
     <t xml:space="preserve">bornborn129</t>
   </si>
   <si>
-    <t xml:space="preserve">b9</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jamie</t>
   </si>
   <si>
@@ -360,9 +336,6 @@
     <t xml:space="preserve">bornborn130</t>
   </si>
   <si>
-    <t xml:space="preserve">b10</t>
-  </si>
-  <si>
     <t xml:space="preserve">Josefa</t>
   </si>
   <si>
@@ -378,9 +351,6 @@
     <t xml:space="preserve">bornborn131</t>
   </si>
   <si>
-    <t xml:space="preserve">b11</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mark</t>
   </si>
   <si>
@@ -396,9 +366,6 @@
     <t xml:space="preserve">bornborn132</t>
   </si>
   <si>
-    <t xml:space="preserve">b12</t>
-  </si>
-  <si>
     <t xml:space="preserve">Maximiliano</t>
   </si>
   <si>
@@ -414,9 +381,6 @@
     <t xml:space="preserve">bornborn133</t>
   </si>
   <si>
-    <t xml:space="preserve">b13</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bastian</t>
   </si>
   <si>
@@ -432,9 +396,6 @@
     <t xml:space="preserve">bornborn134</t>
   </si>
   <si>
-    <t xml:space="preserve">b14</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ayano</t>
   </si>
   <si>
@@ -450,9 +411,6 @@
     <t xml:space="preserve">bornborn135</t>
   </si>
   <si>
-    <t xml:space="preserve">b15</t>
-  </si>
-  <si>
     <t xml:space="preserve">Grace</t>
   </si>
   <si>
@@ -468,9 +426,6 @@
     <t xml:space="preserve">bornborn136</t>
   </si>
   <si>
-    <t xml:space="preserve">b16</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ai</t>
   </si>
   <si>
@@ -486,9 +441,6 @@
     <t xml:space="preserve">bornborn137</t>
   </si>
   <si>
-    <t xml:space="preserve">b17</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kaito</t>
   </si>
   <si>
@@ -504,9 +456,6 @@
     <t xml:space="preserve">bornborn138</t>
   </si>
   <si>
-    <t xml:space="preserve">b18</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kai</t>
   </si>
   <si>
@@ -522,9 +471,6 @@
     <t xml:space="preserve">bornborn139</t>
   </si>
   <si>
-    <t xml:space="preserve">b19</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jun</t>
   </si>
   <si>
@@ -540,9 +486,6 @@
     <t xml:space="preserve">bornborn140</t>
   </si>
   <si>
-    <t xml:space="preserve">b20</t>
-  </si>
-  <si>
     <t xml:space="preserve">Takuya</t>
   </si>
   <si>
@@ -558,9 +501,6 @@
     <t xml:space="preserve">bornborn141</t>
   </si>
   <si>
-    <t xml:space="preserve">b21</t>
-  </si>
-  <si>
     <t xml:space="preserve">Justine</t>
   </si>
   <si>
@@ -576,9 +516,6 @@
     <t xml:space="preserve">bornborn142</t>
   </si>
   <si>
-    <t xml:space="preserve">b22</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nik</t>
   </si>
   <si>
@@ -594,9 +531,6 @@
     <t xml:space="preserve">bornborn143</t>
   </si>
   <si>
-    <t xml:space="preserve">b23</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ara</t>
   </si>
   <si>
@@ -612,9 +546,6 @@
     <t xml:space="preserve">bornborn144</t>
   </si>
   <si>
-    <t xml:space="preserve">b24</t>
-  </si>
-  <si>
     <t xml:space="preserve">Carlos</t>
   </si>
   <si>
@@ -630,9 +561,6 @@
     <t xml:space="preserve">bornborn145</t>
   </si>
   <si>
-    <t xml:space="preserve">b25</t>
-  </si>
-  <si>
     <t xml:space="preserve">Anna</t>
   </si>
   <si>
@@ -648,9 +576,6 @@
     <t xml:space="preserve">bornborn146</t>
   </si>
   <si>
-    <t xml:space="preserve">b26</t>
-  </si>
-  <si>
     <t xml:space="preserve">Daichi</t>
   </si>
   <si>
@@ -666,9 +591,6 @@
     <t xml:space="preserve">bornborn147</t>
   </si>
   <si>
-    <t xml:space="preserve">b27</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dean</t>
   </si>
   <si>
@@ -684,9 +606,6 @@
     <t xml:space="preserve">bornborn148</t>
   </si>
   <si>
-    <t xml:space="preserve">b28</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kaipal</t>
   </si>
   <si>
@@ -702,9 +621,6 @@
     <t xml:space="preserve">bornborn149</t>
   </si>
   <si>
-    <t xml:space="preserve">b29</t>
-  </si>
-  <si>
     <t xml:space="preserve">Riley</t>
   </si>
   <si>
@@ -720,9 +636,6 @@
     <t xml:space="preserve">bornborn150</t>
   </si>
   <si>
-    <t xml:space="preserve">b30</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sofia</t>
   </si>
   <si>
@@ -738,9 +651,6 @@
     <t xml:space="preserve">bornborn151</t>
   </si>
   <si>
-    <t xml:space="preserve">b31</t>
-  </si>
-  <si>
     <t xml:space="preserve">Darren</t>
   </si>
   <si>
@@ -756,9 +666,6 @@
     <t xml:space="preserve">bornborn152</t>
   </si>
   <si>
-    <t xml:space="preserve">b32</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fernado</t>
   </si>
   <si>
@@ -774,9 +681,6 @@
     <t xml:space="preserve">bornborn153</t>
   </si>
   <si>
-    <t xml:space="preserve">b33</t>
-  </si>
-  <si>
     <t xml:space="preserve">Misaki</t>
   </si>
   <si>
@@ -792,9 +696,6 @@
     <t xml:space="preserve">bornborn154</t>
   </si>
   <si>
-    <t xml:space="preserve">b34</t>
-  </si>
-  <si>
     <t xml:space="preserve">Orla</t>
   </si>
   <si>
@@ -810,9 +711,6 @@
     <t xml:space="preserve">bornborn155</t>
   </si>
   <si>
-    <t xml:space="preserve">b35</t>
-  </si>
-  <si>
     <t xml:space="preserve">Robert</t>
   </si>
   <si>
@@ -828,9 +726,6 @@
     <t xml:space="preserve">bornborn156</t>
   </si>
   <si>
-    <t xml:space="preserve">b36</t>
-  </si>
-  <si>
     <t xml:space="preserve">Valentina</t>
   </si>
   <si>
@@ -846,9 +741,6 @@
     <t xml:space="preserve">bornborn157</t>
   </si>
   <si>
-    <t xml:space="preserve">b37</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aya</t>
   </si>
   <si>
@@ -864,9 +756,6 @@
     <t xml:space="preserve">bornborn158</t>
   </si>
   <si>
-    <t xml:space="preserve">b38</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ryan</t>
   </si>
   <si>
@@ -882,9 +771,6 @@
     <t xml:space="preserve">bornborn159</t>
   </si>
   <si>
-    <t xml:space="preserve">b39</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jose</t>
   </si>
   <si>
@@ -900,9 +786,6 @@
     <t xml:space="preserve">bornborn160</t>
   </si>
   <si>
-    <t xml:space="preserve">b40</t>
-  </si>
-  <si>
     <t xml:space="preserve">Shota</t>
   </si>
   <si>
@@ -918,9 +801,6 @@
     <t xml:space="preserve">bornborn161</t>
   </si>
   <si>
-    <t xml:space="preserve">b41</t>
-  </si>
-  <si>
     <t xml:space="preserve">De Leeuw</t>
   </si>
   <si>
@@ -933,9 +813,6 @@
     <t xml:space="preserve">bornborn162</t>
   </si>
   <si>
-    <t xml:space="preserve">b42</t>
-  </si>
-  <si>
     <t xml:space="preserve">Anthony</t>
   </si>
   <si>
@@ -951,9 +828,6 @@
     <t xml:space="preserve">bornborn163</t>
   </si>
   <si>
-    <t xml:space="preserve">b43</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nina</t>
   </si>
   <si>
@@ -969,9 +843,6 @@
     <t xml:space="preserve">bornborn164</t>
   </si>
   <si>
-    <t xml:space="preserve">b44</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lara</t>
   </si>
   <si>
@@ -987,9 +858,6 @@
     <t xml:space="preserve">bornborn165</t>
   </si>
   <si>
-    <t xml:space="preserve">b45</t>
-  </si>
-  <si>
     <t xml:space="preserve">Daiki</t>
   </si>
   <si>
@@ -1005,9 +873,6 @@
     <t xml:space="preserve">bornborn166</t>
   </si>
   <si>
-    <t xml:space="preserve">b46</t>
-  </si>
-  <si>
     <t xml:space="preserve">Felipe</t>
   </si>
   <si>
@@ -1023,9 +888,6 @@
     <t xml:space="preserve">bornborn167</t>
   </si>
   <si>
-    <t xml:space="preserve">b47</t>
-  </si>
-  <si>
     <t xml:space="preserve">Camila</t>
   </si>
   <si>
@@ -1041,9 +903,6 @@
     <t xml:space="preserve">bornborn168</t>
   </si>
   <si>
-    <t xml:space="preserve">b48</t>
-  </si>
-  <si>
     <t xml:space="preserve">Juninho</t>
   </si>
   <si>
@@ -1056,9 +915,6 @@
     <t xml:space="preserve">bornborn169</t>
   </si>
   <si>
-    <t xml:space="preserve">b49</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hama</t>
   </si>
   <si>
@@ -1072,9 +928,6 @@
   </si>
   <si>
     <t xml:space="preserve">bornborn170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b50</t>
   </si>
   <si>
     <t xml:space="preserve">Miki</t>
@@ -3248,7 +3101,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>596</v>
+        <v>547</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3256,10 +3109,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>597</v>
+        <v>548</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>598</v>
+        <v>549</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3324,7 +3177,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J17" s="22" t="s">
-        <v>599</v>
+        <v>550</v>
       </c>
       <c r="K17" s="23"/>
       <c r="L17" s="23"/>
@@ -3339,7 +3192,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J18" s="24" t="s">
-        <v>600</v>
+        <v>551</v>
       </c>
       <c r="K18" s="23"/>
       <c r="L18" s="23"/>
@@ -3354,7 +3207,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J19" s="24" t="s">
-        <v>601</v>
+        <v>552</v>
       </c>
       <c r="K19" s="23"/>
       <c r="L19" s="23"/>
@@ -3369,7 +3222,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J20" s="24" t="s">
-        <v>602</v>
+        <v>553</v>
       </c>
       <c r="K20" s="23"/>
       <c r="L20" s="23"/>
@@ -3384,7 +3237,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J21" s="24" t="s">
-        <v>603</v>
+        <v>554</v>
       </c>
       <c r="K21" s="23"/>
       <c r="L21" s="23"/>
@@ -3399,7 +3252,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J22" s="24" t="s">
-        <v>604</v>
+        <v>555</v>
       </c>
       <c r="K22" s="23"/>
       <c r="L22" s="23"/>
@@ -3449,7 +3302,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>605</v>
+        <v>556</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
@@ -3460,16 +3313,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>606</v>
+        <v>557</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>607</v>
+        <v>558</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>597</v>
+        <v>548</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>608</v>
+        <v>559</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3480,7 +3333,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>609</v>
+        <v>560</v>
       </c>
       <c r="D3" s="21" t="n">
         <f aca="false">TRUE()</f>
@@ -3488,7 +3341,7 @@
       </c>
       <c r="E3" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3499,7 +3352,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>610</v>
+        <v>561</v>
       </c>
       <c r="D4" s="21" t="n">
         <f aca="false">TRUE()</f>
@@ -3507,7 +3360,7 @@
       </c>
       <c r="E4" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3518,7 +3371,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>611</v>
+        <v>562</v>
       </c>
       <c r="D5" s="21" t="n">
         <f aca="false">TRUE()</f>
@@ -3526,7 +3379,7 @@
       </c>
       <c r="E5" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3537,7 +3390,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>612</v>
+        <v>563</v>
       </c>
       <c r="D6" s="21" t="n">
         <f aca="false">FALSE()</f>
@@ -3545,7 +3398,7 @@
       </c>
       <c r="E6" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3556,7 +3409,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>613</v>
+        <v>564</v>
       </c>
       <c r="D7" s="21" t="n">
         <f aca="false">FALSE()</f>
@@ -3564,7 +3417,7 @@
       </c>
       <c r="E7" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3575,7 +3428,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>613</v>
+        <v>564</v>
       </c>
       <c r="D8" s="21" t="n">
         <f aca="false">FALSE()</f>
@@ -3583,7 +3436,7 @@
       </c>
       <c r="E8" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3594,7 +3447,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>613</v>
+        <v>564</v>
       </c>
       <c r="D9" s="21" t="n">
         <f aca="false">FALSE()</f>
@@ -3602,7 +3455,7 @@
       </c>
       <c r="E9" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3613,7 +3466,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>613</v>
+        <v>564</v>
       </c>
       <c r="D10" s="21" t="n">
         <f aca="false">FALSE()</f>
@@ -3621,7 +3474,7 @@
       </c>
       <c r="E10" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3632,7 +3485,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>613</v>
+        <v>564</v>
       </c>
       <c r="D11" s="21" t="n">
         <f aca="false">FALSE()</f>
@@ -3651,7 +3504,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>613</v>
+        <v>564</v>
       </c>
       <c r="D12" s="21" t="n">
         <f aca="false">FALSE()</f>
@@ -3659,7 +3512,7 @@
       </c>
       <c r="E12" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3670,7 +3523,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>613</v>
+        <v>564</v>
       </c>
       <c r="D13" s="21" t="n">
         <f aca="false">FALSE()</f>
@@ -3689,7 +3542,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>613</v>
+        <v>564</v>
       </c>
       <c r="D14" s="21" t="n">
         <f aca="false">FALSE()</f>
@@ -3697,7 +3550,7 @@
       </c>
       <c r="E14" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3708,7 +3561,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>613</v>
+        <v>564</v>
       </c>
       <c r="D15" s="21" t="n">
         <f aca="false">FALSE()</f>
@@ -3716,7 +3569,7 @@
       </c>
       <c r="E15" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3727,7 +3580,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>613</v>
+        <v>564</v>
       </c>
       <c r="D16" s="21" t="n">
         <f aca="false">FALSE()</f>
@@ -3735,7 +3588,7 @@
       </c>
       <c r="E16" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3746,7 +3599,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>613</v>
+        <v>564</v>
       </c>
       <c r="D17" s="21" t="n">
         <f aca="false">FALSE()</f>
@@ -3754,7 +3607,7 @@
       </c>
       <c r="E17" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3803,7 +3656,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>614</v>
+        <v>565</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3811,10 +3664,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>615</v>
+        <v>566</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>616</v>
+        <v>567</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4728,23 +4581,23 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="11.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="0" t="s">
         <v>63</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>64</v>
       </c>
       <c r="G3" s="13" t="n">
         <v>36172</v>
@@ -4753,30 +4606,30 @@
         <v>4</v>
       </c>
       <c r="I3" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="11" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="C4" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="E4" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>70</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>72</v>
       </c>
       <c r="G4" s="14" t="n">
         <v>36074</v>
@@ -4785,30 +4638,30 @@
         <v>2</v>
       </c>
       <c r="I4" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="J4" s="11" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="E5" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="F5" s="0" t="s">
         <v>75</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>78</v>
       </c>
       <c r="G5" s="13" t="n">
         <v>35830</v>
@@ -4817,30 +4670,30 @@
         <v>3</v>
       </c>
       <c r="I5" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="F6" s="0" t="s">
         <v>80</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>84</v>
       </c>
       <c r="G6" s="13" t="n">
         <v>35951</v>
@@ -4849,63 +4702,63 @@
         <v>2</v>
       </c>
       <c r="I6" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="11" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>85</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>90</v>
       </c>
       <c r="G7" s="13" t="n">
         <v>37413</v>
       </c>
       <c r="H7" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>91</v>
+      <c r="A8" s="4" t="n">
+        <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G8" s="13" t="n">
         <v>37294</v>
@@ -4915,30 +4768,30 @@
         <v>3</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>97</v>
+      <c r="A9" s="4" t="n">
+        <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G9" s="13" t="n">
         <v>37415</v>
@@ -4948,129 +4801,129 @@
         <v>4</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>103</v>
+      <c r="A10" s="4" t="n">
+        <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G10" s="13" t="n">
         <v>37324</v>
       </c>
       <c r="H10" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>109</v>
+      <c r="A11" s="4" t="n">
+        <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="G11" s="13" t="n">
         <v>37266</v>
       </c>
       <c r="H11" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="J11" s="0" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>115</v>
+      <c r="A12" s="4" t="n">
+        <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="G12" s="13" t="n">
         <v>37267</v>
       </c>
       <c r="H12" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I12" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="J12" s="0" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>121</v>
+      <c r="A13" s="4" t="n">
+        <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="G13" s="13" t="n">
         <v>37268</v>
@@ -5080,96 +4933,96 @@
         <v>4</v>
       </c>
       <c r="I13" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="J13" s="0" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>127</v>
+      <c r="A14" s="4" t="n">
+        <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="G14" s="13" t="n">
         <v>37269</v>
       </c>
       <c r="H14" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I14" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="J14" s="0" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
-        <v>133</v>
+      <c r="A15" s="4" t="n">
+        <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="G15" s="13" t="n">
         <v>37270</v>
       </c>
       <c r="H15" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I15" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="J15" s="0" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
-        <v>139</v>
+      <c r="A16" s="4" t="n">
+        <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="G16" s="13" t="n">
         <v>37271</v>
@@ -5179,96 +5032,96 @@
         <v>1</v>
       </c>
       <c r="I16" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="J16" s="0" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
-        <v>145</v>
+      <c r="A17" s="4" t="n">
+        <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="G17" s="13" t="n">
         <v>36572</v>
       </c>
       <c r="H17" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I17" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="J17" s="0" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
-        <v>151</v>
+      <c r="A18" s="4" t="n">
+        <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="G18" s="13" t="n">
         <v>36573</v>
       </c>
       <c r="H18" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="J18" s="0" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
-        <v>157</v>
+      <c r="A19" s="4" t="n">
+        <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="G19" s="13" t="n">
         <v>36574</v>
@@ -5278,96 +5131,96 @@
         <v>1</v>
       </c>
       <c r="I19" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J19" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="J19" s="0" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
-        <v>163</v>
+      <c r="A20" s="4" t="n">
+        <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="G20" s="13" t="n">
         <v>36575</v>
       </c>
       <c r="H20" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I20" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="J20" s="0" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
-        <v>169</v>
+      <c r="A21" s="4" t="n">
+        <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="G21" s="13" t="n">
         <v>36576</v>
       </c>
       <c r="H21" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I21" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J21" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="J21" s="0" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
-        <v>175</v>
+      <c r="A22" s="4" t="n">
+        <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="G22" s="13" t="n">
         <v>36577</v>
@@ -5377,30 +5230,30 @@
         <v>4</v>
       </c>
       <c r="I22" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J22" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="J22" s="0" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
-        <v>181</v>
+      <c r="A23" s="4" t="n">
+        <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="G23" s="13" t="n">
         <v>36578</v>
@@ -5410,30 +5263,30 @@
         <v>3</v>
       </c>
       <c r="I23" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J23" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="J23" s="0" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
-        <v>187</v>
+      <c r="A24" s="4" t="n">
+        <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G24" s="13" t="n">
         <v>36700</v>
@@ -5443,129 +5296,129 @@
         <v>1</v>
       </c>
       <c r="I24" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J24" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="J24" s="0" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
-        <v>193</v>
+      <c r="A25" s="4" t="n">
+        <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="G25" s="13" t="n">
         <v>36609</v>
       </c>
       <c r="H25" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J25" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="J25" s="0" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
-        <v>199</v>
+      <c r="A26" s="4" t="n">
+        <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G26" s="13" t="n">
         <v>36610</v>
       </c>
       <c r="H26" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J26" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="J26" s="0" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
-        <v>205</v>
+      <c r="A27" s="4" t="n">
+        <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="G27" s="13" t="n">
         <v>36611</v>
       </c>
       <c r="H27" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I27" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J27" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="J27" s="0" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
-        <v>211</v>
+      <c r="A28" s="4" t="n">
+        <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="G28" s="13" t="n">
         <v>36612</v>
@@ -5575,129 +5428,129 @@
         <v>2</v>
       </c>
       <c r="I28" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J28" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="J28" s="0" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
-        <v>217</v>
+      <c r="A29" s="4" t="n">
+        <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="G29" s="13" t="n">
         <v>36613</v>
       </c>
       <c r="H29" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I29" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J29" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="J29" s="0" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
-        <v>223</v>
+      <c r="A30" s="4" t="n">
+        <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="G30" s="13" t="n">
         <v>36614</v>
       </c>
       <c r="H30" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J30" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="J30" s="0" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
-        <v>229</v>
+      <c r="A31" s="4" t="n">
+        <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="G31" s="13" t="n">
         <v>33388</v>
       </c>
       <c r="H31" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J31" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="J31" s="0" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
-        <v>235</v>
+      <c r="A32" s="4" t="n">
+        <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="G32" s="13" t="n">
         <v>33389</v>
@@ -5707,492 +5560,492 @@
         <v>3</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
-        <v>241</v>
+      <c r="A33" s="4" t="n">
+        <v>32</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="G33" s="13" t="n">
         <v>33390</v>
       </c>
       <c r="H33" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
-        <v>247</v>
+      <c r="A34" s="4" t="n">
+        <v>33</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="G34" s="13" t="n">
         <v>33391</v>
       </c>
       <c r="H34" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
-        <v>253</v>
+      <c r="A35" s="4" t="n">
+        <v>34</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="G35" s="13" t="n">
         <v>33576</v>
       </c>
       <c r="H35" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
-        <v>259</v>
+      <c r="A36" s="4" t="n">
+        <v>35</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="G36" s="13" t="n">
         <v>33577</v>
       </c>
       <c r="H36" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I36" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J36" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="J36" s="11" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="s">
-        <v>265</v>
+      <c r="A37" s="4" t="n">
+        <v>36</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="G37" s="13" t="n">
         <v>33578</v>
       </c>
       <c r="H37" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I37" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J37" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="J37" s="11" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="s">
-        <v>271</v>
+      <c r="A38" s="4" t="n">
+        <v>37</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="G38" s="13" t="n">
         <v>33579</v>
       </c>
       <c r="H38" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I38" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J38" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="J38" s="11" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="s">
-        <v>277</v>
+      <c r="A39" s="4" t="n">
+        <v>38</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>278</v>
+        <v>241</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>279</v>
+        <v>242</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>280</v>
+        <v>243</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>281</v>
+        <v>244</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>282</v>
+        <v>245</v>
       </c>
       <c r="G39" s="13" t="n">
         <v>33185</v>
       </c>
       <c r="H39" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J39" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="J39" s="11" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="s">
-        <v>283</v>
+      <c r="A40" s="4" t="n">
+        <v>39</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>284</v>
+        <v>246</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>285</v>
+        <v>247</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>286</v>
+        <v>248</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>287</v>
+        <v>249</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>288</v>
+        <v>250</v>
       </c>
       <c r="G40" s="13" t="n">
         <v>33186</v>
       </c>
       <c r="H40" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="s">
-        <v>289</v>
+      <c r="A41" s="4" t="n">
+        <v>40</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>290</v>
+        <v>251</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="G41" s="13" t="n">
         <v>33187</v>
       </c>
       <c r="H41" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="s">
-        <v>295</v>
+      <c r="A42" s="4" t="n">
+        <v>41</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>296</v>
+        <v>256</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>297</v>
+        <v>257</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>298</v>
+        <v>258</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>299</v>
+        <v>259</v>
       </c>
       <c r="G42" s="13" t="n">
         <v>33004</v>
       </c>
       <c r="H42" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="s">
-        <v>300</v>
+      <c r="A43" s="4" t="n">
+        <v>42</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>301</v>
+        <v>260</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>302</v>
+        <v>261</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>303</v>
+        <v>262</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>304</v>
+        <v>263</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>305</v>
+        <v>264</v>
       </c>
       <c r="G43" s="13" t="n">
         <v>33005</v>
       </c>
       <c r="H43" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="s">
-        <v>306</v>
+      <c r="A44" s="4" t="n">
+        <v>43</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>307</v>
+        <v>265</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>308</v>
+        <v>266</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>309</v>
+        <v>267</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>310</v>
+        <v>268</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>311</v>
+        <v>269</v>
       </c>
       <c r="G44" s="13" t="n">
         <v>33006</v>
       </c>
       <c r="H44" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I44" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J44" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="J44" s="11" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="s">
-        <v>312</v>
+      <c r="A45" s="4" t="n">
+        <v>44</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>313</v>
+        <v>270</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>314</v>
+        <v>271</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>315</v>
+        <v>272</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>316</v>
+        <v>273</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>317</v>
+        <v>274</v>
       </c>
       <c r="G45" s="13" t="n">
         <v>33007</v>
       </c>
       <c r="H45" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I45" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J45" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="J45" s="11" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="s">
-        <v>318</v>
+      <c r="A46" s="4" t="n">
+        <v>45</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>319</v>
+        <v>275</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>320</v>
+        <v>276</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>321</v>
+        <v>277</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>322</v>
+        <v>278</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>323</v>
+        <v>279</v>
       </c>
       <c r="G46" s="13" t="n">
         <v>33008</v>
       </c>
       <c r="H46" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I46" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J46" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="J46" s="11" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="s">
-        <v>324</v>
+      <c r="A47" s="4" t="n">
+        <v>46</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>325</v>
+        <v>280</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>326</v>
+        <v>281</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>327</v>
+        <v>282</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>328</v>
+        <v>283</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>329</v>
+        <v>284</v>
       </c>
       <c r="G47" s="13" t="n">
         <v>32979</v>
@@ -6202,30 +6055,30 @@
         <v>3</v>
       </c>
       <c r="I47" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J47" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="J47" s="11" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="s">
-        <v>330</v>
+      <c r="A48" s="4" t="n">
+        <v>47</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>331</v>
+        <v>285</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>332</v>
+        <v>286</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>333</v>
+        <v>287</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>334</v>
+        <v>288</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>335</v>
+        <v>289</v>
       </c>
       <c r="G48" s="13" t="n">
         <v>32980</v>
@@ -6235,109 +6088,109 @@
         <v>1</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="s">
-        <v>336</v>
+      <c r="A49" s="4" t="n">
+        <v>48</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>325</v>
+        <v>280</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>337</v>
+        <v>290</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>338</v>
+        <v>291</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>339</v>
+        <v>292</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>340</v>
+        <v>293</v>
       </c>
       <c r="G49" s="13" t="n">
         <v>32981</v>
       </c>
       <c r="H49" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="s">
-        <v>341</v>
+      <c r="A50" s="4" t="n">
+        <v>49</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>342</v>
+        <v>294</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>343</v>
+        <v>295</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>344</v>
+        <v>296</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>345</v>
+        <v>297</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>346</v>
+        <v>298</v>
       </c>
       <c r="G50" s="13" t="n">
         <v>32982</v>
       </c>
       <c r="H50" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="s">
-        <v>347</v>
+      <c r="A51" s="4" t="n">
+        <v>50</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>348</v>
+        <v>299</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>349</v>
+        <v>300</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>350</v>
+        <v>301</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>351</v>
+        <v>302</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>352</v>
+        <v>303</v>
       </c>
       <c r="G51" s="13" t="n">
         <v>32983</v>
       </c>
       <c r="H51" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6345,19 +6198,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>353</v>
+        <v>304</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>354</v>
+        <v>305</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>355</v>
+        <v>306</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>356</v>
+        <v>307</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>357</v>
+        <v>308</v>
       </c>
       <c r="G52" s="13" t="n">
         <v>35602</v>
@@ -6367,10 +6220,10 @@
         <v>4</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6378,32 +6231,32 @@
         <v>52</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>358</v>
+        <v>309</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>359</v>
+        <v>310</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>360</v>
+        <v>311</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>361</v>
+        <v>312</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>362</v>
+        <v>313</v>
       </c>
       <c r="G53" s="13" t="n">
         <v>35603</v>
       </c>
       <c r="H53" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I53" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J53" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="J53" s="11" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6411,32 +6264,32 @@
         <v>53</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>363</v>
+        <v>314</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>364</v>
+        <v>315</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>365</v>
+        <v>316</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>366</v>
+        <v>317</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>367</v>
+        <v>318</v>
       </c>
       <c r="G54" s="13" t="n">
         <v>35604</v>
       </c>
       <c r="H54" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I54" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J54" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="J54" s="11" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6444,32 +6297,32 @@
         <v>54</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>368</v>
+        <v>319</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>370</v>
+        <v>321</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>371</v>
+        <v>322</v>
       </c>
       <c r="G55" s="13" t="n">
         <v>35605</v>
       </c>
       <c r="H55" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J55" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="J55" s="11" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6477,32 +6330,32 @@
         <v>55</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>372</v>
+        <v>323</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>373</v>
+        <v>324</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>374</v>
+        <v>325</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>375</v>
+        <v>326</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>376</v>
+        <v>327</v>
       </c>
       <c r="G56" s="13" t="n">
         <v>35606</v>
       </c>
       <c r="H56" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I56" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J56" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="J56" s="11" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6510,32 +6363,32 @@
         <v>56</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>377</v>
+        <v>328</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>378</v>
+        <v>329</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>379</v>
+        <v>330</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>380</v>
+        <v>331</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>381</v>
+        <v>332</v>
       </c>
       <c r="G57" s="13" t="n">
         <v>35699</v>
       </c>
       <c r="H57" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6543,19 +6396,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>382</v>
+        <v>333</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>383</v>
+        <v>334</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>384</v>
+        <v>335</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>385</v>
+        <v>336</v>
       </c>
       <c r="G58" s="13" t="n">
         <v>35700</v>
@@ -6565,10 +6418,10 @@
         <v>1</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J58" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6576,32 +6429,32 @@
         <v>58</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>386</v>
+        <v>337</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>387</v>
+        <v>338</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>388</v>
+        <v>339</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>389</v>
+        <v>340</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>390</v>
+        <v>341</v>
       </c>
       <c r="G59" s="13" t="n">
         <v>35701</v>
       </c>
       <c r="H59" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J59" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6609,19 +6462,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>391</v>
+        <v>342</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>392</v>
+        <v>343</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>393</v>
+        <v>344</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>394</v>
+        <v>345</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>395</v>
+        <v>346</v>
       </c>
       <c r="G60" s="13" t="n">
         <v>35702</v>
@@ -6631,10 +6484,10 @@
         <v>3</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J60" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6642,32 +6495,32 @@
         <v>60</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>396</v>
+        <v>347</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>397</v>
+        <v>348</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>398</v>
+        <v>349</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>399</v>
+        <v>350</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>400</v>
+        <v>351</v>
       </c>
       <c r="G61" s="13" t="n">
         <v>35641</v>
       </c>
       <c r="H61" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J61" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6675,32 +6528,32 @@
         <v>61</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>401</v>
+        <v>352</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>402</v>
+        <v>353</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>403</v>
+        <v>354</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>404</v>
+        <v>355</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>405</v>
+        <v>356</v>
       </c>
       <c r="G62" s="13" t="n">
         <v>35642</v>
       </c>
       <c r="H62" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I62" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J62" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6708,32 +6561,32 @@
         <v>62</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>406</v>
+        <v>357</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>407</v>
+        <v>358</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>408</v>
+        <v>359</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>409</v>
+        <v>360</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>410</v>
+        <v>361</v>
       </c>
       <c r="G63" s="13" t="n">
         <v>35490</v>
       </c>
       <c r="H63" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J63" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6741,19 +6594,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>307</v>
+        <v>265</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>411</v>
+        <v>362</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>412</v>
+        <v>363</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>413</v>
+        <v>364</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>414</v>
+        <v>365</v>
       </c>
       <c r="G64" s="13" t="n">
         <v>35491</v>
@@ -6763,10 +6616,10 @@
         <v>1</v>
       </c>
       <c r="I64" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J64" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="J64" s="11" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6774,32 +6627,32 @@
         <v>64</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>415</v>
+        <v>366</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>416</v>
+        <v>367</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>417</v>
+        <v>368</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>418</v>
+        <v>369</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>419</v>
+        <v>370</v>
       </c>
       <c r="G65" s="13" t="n">
         <v>35492</v>
       </c>
       <c r="H65" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I65" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J65" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="J65" s="11" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6807,32 +6660,32 @@
         <v>65</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>420</v>
+        <v>371</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>421</v>
+        <v>372</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>422</v>
+        <v>373</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>424</v>
+        <v>375</v>
       </c>
       <c r="G66" s="13" t="n">
         <v>35493</v>
       </c>
       <c r="H66" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I66" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J66" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="J66" s="11" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6840,32 +6693,32 @@
         <v>66</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>425</v>
+        <v>376</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>426</v>
+        <v>377</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>427</v>
+        <v>378</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>428</v>
+        <v>379</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>429</v>
+        <v>380</v>
       </c>
       <c r="G67" s="13" t="n">
         <v>33974</v>
       </c>
       <c r="H67" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I67" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J67" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="J67" s="11" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6873,32 +6726,32 @@
         <v>67</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>372</v>
+        <v>323</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>430</v>
+        <v>381</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>431</v>
+        <v>382</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>432</v>
+        <v>383</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>433</v>
+        <v>384</v>
       </c>
       <c r="G68" s="13" t="n">
         <v>33975</v>
       </c>
       <c r="H68" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J68" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6906,32 +6759,32 @@
         <v>68</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>434</v>
+        <v>385</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>435</v>
+        <v>386</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>436</v>
+        <v>387</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>437</v>
+        <v>388</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>438</v>
+        <v>389</v>
       </c>
       <c r="G69" s="13" t="n">
         <v>33976</v>
       </c>
       <c r="H69" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J69" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6939,32 +6792,32 @@
         <v>69</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>439</v>
+        <v>390</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>440</v>
+        <v>391</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>441</v>
+        <v>392</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>442</v>
+        <v>393</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>443</v>
+        <v>394</v>
       </c>
       <c r="G70" s="13" t="n">
         <v>33977</v>
       </c>
       <c r="H70" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J70" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6972,32 +6825,32 @@
         <v>70</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>284</v>
+        <v>246</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>444</v>
+        <v>395</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>445</v>
+        <v>396</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>446</v>
+        <v>397</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>447</v>
+        <v>398</v>
       </c>
       <c r="G71" s="13" t="n">
         <v>33978</v>
       </c>
       <c r="H71" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J71" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7005,32 +6858,32 @@
         <v>71</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>448</v>
+        <v>399</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>449</v>
+        <v>400</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>450</v>
+        <v>401</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>451</v>
+        <v>402</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>452</v>
+        <v>403</v>
       </c>
       <c r="G72" s="13" t="n">
         <v>34160</v>
       </c>
       <c r="H72" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J72" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="J72" s="11" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7038,19 +6891,19 @@
         <v>72</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>453</v>
+        <v>404</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>454</v>
+        <v>405</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>455</v>
+        <v>406</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>456</v>
+        <v>407</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>457</v>
+        <v>408</v>
       </c>
       <c r="G73" s="13" t="n">
         <v>34161</v>
@@ -7060,10 +6913,10 @@
         <v>1</v>
       </c>
       <c r="I73" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J73" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="J73" s="11" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7071,19 +6924,19 @@
         <v>73</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>458</v>
+        <v>409</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>459</v>
+        <v>410</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>460</v>
+        <v>411</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>461</v>
+        <v>412</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>462</v>
+        <v>413</v>
       </c>
       <c r="G74" s="13" t="n">
         <v>34162</v>
@@ -7093,10 +6946,10 @@
         <v>1</v>
       </c>
       <c r="I74" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J74" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="J74" s="11" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7104,32 +6957,32 @@
         <v>74</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>463</v>
+        <v>414</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>464</v>
+        <v>415</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>465</v>
+        <v>416</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>466</v>
+        <v>417</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>467</v>
+        <v>418</v>
       </c>
       <c r="G75" s="13" t="n">
         <v>34163</v>
       </c>
       <c r="H75" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I75" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J75" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="J75" s="11" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7137,32 +6990,32 @@
         <v>75</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>468</v>
+        <v>419</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>469</v>
+        <v>420</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>470</v>
+        <v>421</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>471</v>
+        <v>422</v>
       </c>
       <c r="G76" s="13" t="n">
         <v>34164</v>
       </c>
       <c r="H76" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I76" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J76" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7170,32 +7023,32 @@
         <v>76</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>472</v>
+        <v>423</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>473</v>
+        <v>424</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>474</v>
+        <v>425</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>475</v>
+        <v>426</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>476</v>
+        <v>427</v>
       </c>
       <c r="G77" s="13" t="n">
         <v>34165</v>
       </c>
       <c r="H77" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J77" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7203,19 +7056,19 @@
         <v>77</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>477</v>
+        <v>428</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>478</v>
+        <v>429</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>479</v>
+        <v>430</v>
       </c>
       <c r="G78" s="13" t="n">
         <v>34988</v>
@@ -7225,10 +7078,10 @@
         <v>1</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7236,19 +7089,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>480</v>
+        <v>431</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>481</v>
+        <v>432</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>482</v>
+        <v>433</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>483</v>
+        <v>434</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>484</v>
+        <v>435</v>
       </c>
       <c r="G79" s="13" t="n">
         <v>34989</v>
@@ -7258,10 +7111,10 @@
         <v>3</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7269,32 +7122,32 @@
         <v>79</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>485</v>
+        <v>436</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>486</v>
+        <v>437</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>487</v>
+        <v>438</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>488</v>
+        <v>439</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>489</v>
+        <v>440</v>
       </c>
       <c r="G80" s="13" t="n">
         <v>34990</v>
       </c>
       <c r="H80" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J80" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7302,19 +7155,19 @@
         <v>80</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>490</v>
+        <v>441</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>491</v>
+        <v>442</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>492</v>
+        <v>443</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>493</v>
+        <v>444</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>494</v>
+        <v>445</v>
       </c>
       <c r="G81" s="13" t="n">
         <v>34991</v>
@@ -7324,10 +7177,10 @@
         <v>2</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J81" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7335,19 +7188,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>495</v>
+        <v>446</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>496</v>
+        <v>447</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>497</v>
+        <v>448</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>498</v>
+        <v>449</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>499</v>
+        <v>450</v>
       </c>
       <c r="G82" s="13" t="n">
         <v>34992</v>
@@ -7357,10 +7210,10 @@
         <v>1</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J82" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7368,32 +7221,32 @@
         <v>82</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>500</v>
+        <v>451</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>501</v>
+        <v>452</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>502</v>
+        <v>453</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>503</v>
+        <v>454</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>504</v>
+        <v>455</v>
       </c>
       <c r="G83" s="13" t="n">
         <v>34993</v>
       </c>
       <c r="H83" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J83" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7401,32 +7254,32 @@
         <v>83</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>505</v>
+        <v>456</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>506</v>
+        <v>457</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>507</v>
+        <v>458</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>508</v>
+        <v>459</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>509</v>
+        <v>460</v>
       </c>
       <c r="G84" s="13" t="n">
         <v>34994</v>
       </c>
       <c r="H84" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J84" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7434,32 +7287,32 @@
         <v>84</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>510</v>
+        <v>461</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>511</v>
+        <v>462</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>512</v>
+        <v>463</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>513</v>
+        <v>464</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>514</v>
+        <v>465</v>
       </c>
       <c r="G85" s="13" t="n">
         <v>35026</v>
       </c>
       <c r="H85" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J85" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7467,32 +7320,32 @@
         <v>85</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>515</v>
+        <v>466</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>516</v>
+        <v>467</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>517</v>
+        <v>468</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>518</v>
+        <v>469</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>519</v>
+        <v>470</v>
       </c>
       <c r="G86" s="13" t="n">
         <v>35027</v>
       </c>
       <c r="H86" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J86" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7500,32 +7353,32 @@
         <v>86</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>520</v>
+        <v>471</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>521</v>
+        <v>472</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>522</v>
+        <v>473</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>523</v>
+        <v>474</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>524</v>
+        <v>475</v>
       </c>
       <c r="G87" s="13" t="n">
         <v>35028</v>
       </c>
       <c r="H87" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J87" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7533,32 +7386,32 @@
         <v>87</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>525</v>
+        <v>476</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>526</v>
+        <v>477</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>527</v>
+        <v>478</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>528</v>
+        <v>479</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>529</v>
+        <v>480</v>
       </c>
       <c r="G88" s="13" t="n">
         <v>35029</v>
       </c>
       <c r="H88" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I88" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J88" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7566,19 +7419,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>530</v>
+        <v>481</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>531</v>
+        <v>482</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>532</v>
+        <v>483</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>533</v>
+        <v>484</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>534</v>
+        <v>485</v>
       </c>
       <c r="G89" s="13" t="n">
         <v>35030</v>
@@ -7588,10 +7441,10 @@
         <v>2</v>
       </c>
       <c r="I89" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J89" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7599,32 +7452,32 @@
         <v>89</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>535</v>
+        <v>486</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>536</v>
+        <v>487</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>537</v>
+        <v>488</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>538</v>
+        <v>489</v>
       </c>
       <c r="G90" s="13" t="n">
         <v>38349</v>
       </c>
       <c r="H90" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I90" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J90" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7632,32 +7485,32 @@
         <v>90</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>539</v>
+        <v>490</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>540</v>
+        <v>491</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>541</v>
+        <v>492</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>542</v>
+        <v>493</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>543</v>
+        <v>494</v>
       </c>
       <c r="G91" s="13" t="n">
         <v>38350</v>
       </c>
       <c r="H91" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J91" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7665,32 +7518,32 @@
         <v>91</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>544</v>
+        <v>495</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>545</v>
+        <v>496</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>546</v>
+        <v>497</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>547</v>
+        <v>498</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>548</v>
+        <v>499</v>
       </c>
       <c r="G92" s="13" t="n">
         <v>38351</v>
       </c>
       <c r="H92" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I92" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J92" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7698,32 +7551,32 @@
         <v>92</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>549</v>
+        <v>500</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>550</v>
+        <v>501</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>551</v>
+        <v>502</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>552</v>
+        <v>503</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>553</v>
+        <v>504</v>
       </c>
       <c r="G93" s="13" t="n">
         <v>38352</v>
       </c>
       <c r="H93" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I93" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J93" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7731,32 +7584,32 @@
         <v>93</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>554</v>
+        <v>505</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>555</v>
+        <v>506</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>556</v>
+        <v>507</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>557</v>
+        <v>508</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>558</v>
+        <v>509</v>
       </c>
       <c r="G94" s="13" t="n">
         <v>38353</v>
       </c>
       <c r="H94" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I94" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J94" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7764,19 +7617,19 @@
         <v>94</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>559</v>
+        <v>510</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>560</v>
+        <v>511</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>561</v>
+        <v>512</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>562</v>
+        <v>513</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>563</v>
+        <v>514</v>
       </c>
       <c r="G95" s="13" t="n">
         <v>30165</v>
@@ -7786,10 +7639,10 @@
         <v>1</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J95" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7797,19 +7650,19 @@
         <v>95</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>564</v>
+        <v>515</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>565</v>
+        <v>516</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>566</v>
+        <v>517</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>567</v>
+        <v>518</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>568</v>
+        <v>519</v>
       </c>
       <c r="G96" s="13" t="n">
         <v>30166</v>
@@ -7819,10 +7672,10 @@
         <v>3</v>
       </c>
       <c r="I96" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J96" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7830,19 +7683,19 @@
         <v>96</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>358</v>
+        <v>309</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>569</v>
+        <v>520</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>570</v>
+        <v>521</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>571</v>
+        <v>522</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>572</v>
+        <v>523</v>
       </c>
       <c r="G97" s="13" t="n">
         <v>31294</v>
@@ -7852,10 +7705,10 @@
         <v>2</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J97" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7863,32 +7716,32 @@
         <v>97</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>573</v>
+        <v>524</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>574</v>
+        <v>525</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>575</v>
+        <v>526</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>576</v>
+        <v>527</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>577</v>
+        <v>528</v>
       </c>
       <c r="G98" s="13" t="n">
         <v>31295</v>
       </c>
       <c r="H98" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I98" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J98" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7896,19 +7749,19 @@
         <v>98</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>331</v>
+        <v>285</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>578</v>
+        <v>529</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>579</v>
+        <v>530</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>580</v>
+        <v>531</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>581</v>
+        <v>532</v>
       </c>
       <c r="G99" s="13" t="n">
         <v>31296</v>
@@ -7918,10 +7771,10 @@
         <v>4</v>
       </c>
       <c r="I99" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J99" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7929,32 +7782,32 @@
         <v>99</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>559</v>
+        <v>510</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>582</v>
+        <v>533</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>583</v>
+        <v>534</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>584</v>
+        <v>535</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>585</v>
+        <v>536</v>
       </c>
       <c r="G100" s="13" t="n">
         <v>31297</v>
       </c>
       <c r="H100" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I100" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J100" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7962,32 +7815,32 @@
         <v>100</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>535</v>
+        <v>486</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>586</v>
+        <v>537</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>587</v>
+        <v>538</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>588</v>
+        <v>539</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>589</v>
+        <v>540</v>
       </c>
       <c r="G101" s="13" t="n">
         <v>31298</v>
       </c>
       <c r="H101" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I101" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J101" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7995,32 +7848,32 @@
         <v>101</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>590</v>
+        <v>541</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>591</v>
+        <v>542</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>592</v>
+        <v>543</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>593</v>
+        <v>544</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>594</v>
+        <v>545</v>
       </c>
       <c r="G102" s="13" t="n">
         <v>31299</v>
       </c>
       <c r="H102" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I102" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="J102" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="J102" s="11" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8183,7 +8036,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>595</v>
+        <v>546</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>8</v>
@@ -8222,11 +8075,11 @@
       </c>
       <c r="E3" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G3" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8238,7 +8091,7 @@
       </c>
       <c r="I3" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8256,15 +8109,15 @@
       </c>
       <c r="E4" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8290,15 +8143,15 @@
       </c>
       <c r="E5" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G5" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8306,7 +8159,7 @@
       </c>
       <c r="I5" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8324,11 +8177,11 @@
       </c>
       <c r="E6" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G6" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8336,7 +8189,7 @@
       </c>
       <c r="H6" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8358,23 +8211,23 @@
       </c>
       <c r="E7" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F7" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8392,15 +8245,15 @@
       </c>
       <c r="E8" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F8" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G8" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8408,7 +8261,7 @@
       </c>
       <c r="I8" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8420,18 +8273,18 @@
       </c>
       <c r="C9" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G9" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8439,11 +8292,11 @@
       </c>
       <c r="H9" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8455,22 +8308,22 @@
       </c>
       <c r="C10" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G10" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8478,7 +8331,7 @@
       </c>
       <c r="I10" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8490,7 +8343,7 @@
       </c>
       <c r="C11" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>1</v>
@@ -8505,15 +8358,15 @@
       </c>
       <c r="G11" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8525,7 +8378,7 @@
       </c>
       <c r="C12" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" s="4" t="n">
         <v>1</v>
@@ -8536,15 +8389,15 @@
       </c>
       <c r="F12" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G12" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8560,26 +8413,26 @@
       </c>
       <c r="C13" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>1</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>5</v>
       </c>
-      <c r="D13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
-      </c>
-      <c r="F13" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
-      </c>
       <c r="G13" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
         <v>1</v>
       </c>
       <c r="H13" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8595,7 +8448,7 @@
       </c>
       <c r="C14" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>1</v>
@@ -8630,18 +8483,18 @@
       </c>
       <c r="C15" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E15" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G15" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8649,11 +8502,11 @@
       </c>
       <c r="H15" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8665,18 +8518,18 @@
       </c>
       <c r="C16" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E16" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F16" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G16" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8684,7 +8537,7 @@
       </c>
       <c r="H16" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8700,30 +8553,30 @@
       </c>
       <c r="C17" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E17" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F17" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G17" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8735,7 +8588,7 @@
       </c>
       <c r="C18" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>1</v>
@@ -8746,7 +8599,7 @@
       </c>
       <c r="F18" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G18" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8770,18 +8623,18 @@
       </c>
       <c r="C19" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E19" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G19" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8789,11 +8642,11 @@
       </c>
       <c r="H19" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8805,14 +8658,14 @@
       </c>
       <c r="C20" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D20" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E20" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -8820,7 +8673,7 @@
       </c>
       <c r="G20" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8828,7 +8681,7 @@
       </c>
       <c r="I20" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8840,22 +8693,22 @@
       </c>
       <c r="C21" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>2</v>
+      </c>
+      <c r="D21" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
+        <v>2</v>
+      </c>
+      <c r="F21" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>3</v>
       </c>
-      <c r="D21" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
-      </c>
-      <c r="F21" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
-      </c>
       <c r="G21" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8863,7 +8716,7 @@
       </c>
       <c r="I21" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8875,22 +8728,22 @@
       </c>
       <c r="C22" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E22" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F22" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G22" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8898,7 +8751,7 @@
       </c>
       <c r="I22" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8910,18 +8763,18 @@
       </c>
       <c r="C23" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D23" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E23" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F23" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G23" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8929,7 +8782,7 @@
       </c>
       <c r="H23" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8945,11 +8798,11 @@
       </c>
       <c r="C24" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D24" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E24" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -8957,7 +8810,7 @@
       </c>
       <c r="F24" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G24" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8969,7 +8822,7 @@
       </c>
       <c r="I24" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8981,19 +8834,19 @@
       </c>
       <c r="C25" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D25" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E25" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G25" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9001,11 +8854,11 @@
       </c>
       <c r="H25" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9017,19 +8870,19 @@
       </c>
       <c r="C26" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>11</v>
+      </c>
+      <c r="E26" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
+        <v>1</v>
+      </c>
+      <c r="F26" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>12</v>
-      </c>
-      <c r="E26" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
-      </c>
-      <c r="F26" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
       </c>
       <c r="G26" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9053,19 +8906,19 @@
       </c>
       <c r="C27" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D27" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E27" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G27" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9089,27 +8942,27 @@
       </c>
       <c r="C28" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D28" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E28" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F28" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G28" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9125,19 +8978,19 @@
       </c>
       <c r="C29" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D29" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E29" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F29" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G29" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9145,11 +8998,11 @@
       </c>
       <c r="H29" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9161,19 +9014,19 @@
       </c>
       <c r="C30" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D30" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E30" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F30" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G30" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9197,31 +9050,31 @@
       </c>
       <c r="C31" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D31" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>2</v>
+      </c>
+      <c r="E31" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
+        <v>3</v>
+      </c>
+      <c r="F31" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>9</v>
       </c>
-      <c r="E31" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
-      </c>
-      <c r="F31" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
-      </c>
       <c r="G31" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9237,7 +9090,7 @@
       </c>
       <c r="D32" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E32" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -9245,11 +9098,11 @@
       </c>
       <c r="F32" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G32" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9257,7 +9110,7 @@
       </c>
       <c r="I32" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9269,7 +9122,7 @@
       </c>
       <c r="C33" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D33" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -9277,7 +9130,7 @@
       </c>
       <c r="E33" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F33" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -9293,7 +9146,7 @@
       </c>
       <c r="I33" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9305,27 +9158,27 @@
       </c>
       <c r="C34" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D34" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E34" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
+        <v>1</v>
+      </c>
+      <c r="F34" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>3</v>
       </c>
-      <c r="F34" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
-      </c>
       <c r="G34" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
         <v>2</v>
       </c>
       <c r="H34" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9341,11 +9194,11 @@
       </c>
       <c r="C35" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D35" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E35" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -9353,11 +9206,11 @@
       </c>
       <c r="F35" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G35" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9377,19 +9230,19 @@
       </c>
       <c r="C36" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>2</v>
+      </c>
+      <c r="D36" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>10</v>
+      </c>
+      <c r="E36" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
         <v>3</v>
       </c>
-      <c r="D36" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
-      </c>
-      <c r="E36" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
-      </c>
       <c r="F36" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G36" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9413,23 +9266,23 @@
       </c>
       <c r="C37" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E37" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F37" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G37" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H37" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9449,19 +9302,19 @@
       </c>
       <c r="C38" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D38" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E38" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F38" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G38" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9469,11 +9322,11 @@
       </c>
       <c r="H38" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9485,23 +9338,23 @@
       </c>
       <c r="C39" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>7</v>
+      </c>
+      <c r="D39" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>6</v>
+      </c>
+      <c r="E39" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
         <v>4</v>
       </c>
-      <c r="D39" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
-      </c>
-      <c r="E39" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
-      </c>
       <c r="F39" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G39" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9521,31 +9374,31 @@
       </c>
       <c r="C40" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D40" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E40" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F40" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G40" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H40" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9557,19 +9410,19 @@
       </c>
       <c r="C41" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>5</v>
+      </c>
+      <c r="D41" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>6</v>
       </c>
-      <c r="D41" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
-      </c>
       <c r="E41" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F41" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G41" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9577,11 +9430,11 @@
       </c>
       <c r="H41" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9593,11 +9446,11 @@
       </c>
       <c r="C42" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D42" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E42" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -9605,7 +9458,7 @@
       </c>
       <c r="F42" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G42" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9613,11 +9466,11 @@
       </c>
       <c r="H42" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9633,15 +9486,15 @@
       </c>
       <c r="D43" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E43" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G43" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9649,7 +9502,7 @@
       </c>
       <c r="H43" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9665,7 +9518,7 @@
       </c>
       <c r="C44" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D44" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -9673,23 +9526,23 @@
       </c>
       <c r="E44" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F44" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G44" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9705,7 +9558,7 @@
       </c>
       <c r="D45" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E45" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -9713,7 +9566,7 @@
       </c>
       <c r="F45" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G45" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9737,11 +9590,11 @@
       </c>
       <c r="C46" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E46" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -9749,7 +9602,7 @@
       </c>
       <c r="F46" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G46" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9761,7 +9614,7 @@
       </c>
       <c r="I46" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9773,11 +9626,11 @@
       </c>
       <c r="C47" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E47" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -9785,7 +9638,7 @@
       </c>
       <c r="F47" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G47" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9797,7 +9650,7 @@
       </c>
       <c r="I47" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9809,7 +9662,7 @@
       </c>
       <c r="C48" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D48" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -9817,11 +9670,11 @@
       </c>
       <c r="E48" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G48" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9833,7 +9686,7 @@
       </c>
       <c r="I48" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9845,27 +9698,27 @@
       </c>
       <c r="C49" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E49" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F49" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G49" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H49" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9881,23 +9734,23 @@
       </c>
       <c r="C50" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D50" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E50" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F50" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G50" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H50" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9905,7 +9758,7 @@
       </c>
       <c r="I50" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9917,19 +9770,19 @@
       </c>
       <c r="C51" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D51" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E51" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F51" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G51" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9941,7 +9794,7 @@
       </c>
       <c r="I51" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9953,19 +9806,19 @@
       </c>
       <c r="C52" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E52" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F52" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G52" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9989,7 +9842,7 @@
       </c>
       <c r="C53" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D53" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -9997,19 +9850,19 @@
       </c>
       <c r="E53" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F53" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G53" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H53" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10029,19 +9882,19 @@
       </c>
       <c r="D54" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>10</v>
+      </c>
+      <c r="E54" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
         <v>4</v>
       </c>
-      <c r="E54" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
-      </c>
       <c r="F54" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G54" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H54" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10049,7 +9902,7 @@
       </c>
       <c r="I54" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10061,19 +9914,19 @@
       </c>
       <c r="C55" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E55" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F55" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G55" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10081,11 +9934,11 @@
       </c>
       <c r="H55" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10101,23 +9954,23 @@
       </c>
       <c r="D56" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E56" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G56" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H56" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10133,27 +9986,27 @@
       </c>
       <c r="C57" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D57" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E57" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G57" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H57" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10169,11 +10022,11 @@
       </c>
       <c r="C58" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D58" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E58" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -10185,15 +10038,15 @@
       </c>
       <c r="G58" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H58" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10205,19 +10058,19 @@
       </c>
       <c r="C59" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E59" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F59" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G59" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10241,31 +10094,31 @@
       </c>
       <c r="C60" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>7</v>
+      </c>
+      <c r="D60" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>12</v>
+      </c>
+      <c r="E60" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
+        <v>4</v>
+      </c>
+      <c r="F60" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>6</v>
       </c>
-      <c r="D60" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
-      </c>
-      <c r="E60" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
-      </c>
-      <c r="F60" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
-      </c>
       <c r="G60" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H60" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10277,19 +10130,19 @@
       </c>
       <c r="C61" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>2</v>
+      </c>
+      <c r="D61" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>7</v>
       </c>
-      <c r="D61" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
-      </c>
       <c r="E61" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F61" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G61" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10297,7 +10150,7 @@
       </c>
       <c r="H61" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10313,27 +10166,27 @@
       </c>
       <c r="C62" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D62" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>9</v>
+      </c>
+      <c r="E62" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
+        <v>4</v>
+      </c>
+      <c r="F62" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>6</v>
       </c>
-      <c r="E62" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
-      </c>
-      <c r="F62" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
-      </c>
       <c r="G62" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
         <v>1</v>
       </c>
       <c r="H62" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10349,19 +10202,19 @@
       </c>
       <c r="C63" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D63" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E63" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F63" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G63" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10369,7 +10222,7 @@
       </c>
       <c r="H63" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10385,19 +10238,19 @@
       </c>
       <c r="C64" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D64" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E64" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G64" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10409,7 +10262,7 @@
       </c>
       <c r="I64" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10421,11 +10274,11 @@
       </c>
       <c r="C65" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D65" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E65" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -10433,7 +10286,7 @@
       </c>
       <c r="F65" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G65" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10441,11 +10294,11 @@
       </c>
       <c r="H65" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10469,11 +10322,11 @@
       </c>
       <c r="F66" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G66" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H66" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10493,31 +10346,31 @@
       </c>
       <c r="C67" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D67" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>11</v>
+      </c>
+      <c r="E67" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
+        <v>3</v>
+      </c>
+      <c r="F67" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>10</v>
       </c>
-      <c r="E67" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
-      </c>
-      <c r="F67" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
-      </c>
       <c r="G67" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
         <v>1</v>
       </c>
       <c r="H67" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10529,31 +10382,31 @@
       </c>
       <c r="C68" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D68" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E68" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F68" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G68" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H68" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10565,23 +10418,23 @@
       </c>
       <c r="C69" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D69" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>10</v>
+      </c>
+      <c r="E69" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
+        <v>2</v>
+      </c>
+      <c r="F69" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>4</v>
       </c>
-      <c r="E69" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
-      </c>
-      <c r="F69" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
-      </c>
       <c r="G69" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H69" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10589,7 +10442,7 @@
       </c>
       <c r="I69" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10605,7 +10458,7 @@
       </c>
       <c r="D70" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E70" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -10613,11 +10466,11 @@
       </c>
       <c r="F70" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G70" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H70" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10637,11 +10490,11 @@
       </c>
       <c r="C71" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D71" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E71" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -10649,19 +10502,19 @@
       </c>
       <c r="F71" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G71" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H71" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10673,11 +10526,11 @@
       </c>
       <c r="C72" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D72" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E72" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -10685,7 +10538,7 @@
       </c>
       <c r="F72" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G72" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10697,7 +10550,7 @@
       </c>
       <c r="I72" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10713,15 +10566,15 @@
       </c>
       <c r="D73" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E73" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F73" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G73" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10733,7 +10586,7 @@
       </c>
       <c r="I73" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10749,7 +10602,7 @@
       </c>
       <c r="D74" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E74" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -10757,11 +10610,11 @@
       </c>
       <c r="F74" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G74" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H74" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10769,7 +10622,7 @@
       </c>
       <c r="I74" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10781,23 +10634,23 @@
       </c>
       <c r="C75" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D75" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>5</v>
+      </c>
+      <c r="E75" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
         <v>3</v>
       </c>
-      <c r="E75" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
-      </c>
       <c r="F75" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G75" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H75" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10805,7 +10658,7 @@
       </c>
       <c r="I75" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10817,23 +10670,23 @@
       </c>
       <c r="C76" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D76" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>3</v>
+      </c>
+      <c r="E76" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
         <v>4</v>
       </c>
-      <c r="E76" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
-      </c>
       <c r="F76" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G76" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H76" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10853,15 +10706,15 @@
       </c>
       <c r="C77" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D77" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E77" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F77" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -10869,15 +10722,15 @@
       </c>
       <c r="G77" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H77" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10893,15 +10746,15 @@
       </c>
       <c r="D78" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E78" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F78" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G78" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10913,7 +10766,7 @@
       </c>
       <c r="I78" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10925,7 +10778,7 @@
       </c>
       <c r="C79" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D79" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -10933,11 +10786,11 @@
       </c>
       <c r="E79" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F79" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G79" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10949,7 +10802,7 @@
       </c>
       <c r="I79" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10961,31 +10814,31 @@
       </c>
       <c r="C80" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D80" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E80" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F80" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G80" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H80" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10997,7 +10850,7 @@
       </c>
       <c r="C81" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D81" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -11005,19 +10858,19 @@
       </c>
       <c r="E81" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F81" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G81" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H81" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11033,23 +10886,23 @@
       </c>
       <c r="C82" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>6</v>
+      </c>
+      <c r="E82" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
+        <v>1</v>
+      </c>
+      <c r="F82" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>11</v>
       </c>
-      <c r="E82" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
-      </c>
-      <c r="F82" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
-      </c>
       <c r="G82" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H82" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11069,31 +10922,31 @@
       </c>
       <c r="C83" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D83" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E83" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F83" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G83" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H83" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11105,31 +10958,31 @@
       </c>
       <c r="C84" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D84" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E84" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F84" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G84" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H84" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11141,31 +10994,31 @@
       </c>
       <c r="C85" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E85" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F85" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G85" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H85" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11181,23 +11034,23 @@
       </c>
       <c r="D86" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E86" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F86" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G86" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H86" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11217,19 +11070,19 @@
       </c>
       <c r="D87" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>5</v>
+      </c>
+      <c r="E87" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
+        <v>2</v>
+      </c>
+      <c r="F87" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>7</v>
       </c>
-      <c r="E87" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
-      </c>
-      <c r="F87" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
-      </c>
       <c r="G87" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H87" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11249,23 +11102,23 @@
       </c>
       <c r="C88" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D88" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E88" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F88" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G88" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H88" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11285,23 +11138,23 @@
       </c>
       <c r="C89" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D89" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E89" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F89" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G89" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H89" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11309,7 +11162,7 @@
       </c>
       <c r="I89" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11325,7 +11178,7 @@
       </c>
       <c r="D90" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E90" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -11333,19 +11186,19 @@
       </c>
       <c r="F90" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G90" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H90" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11357,11 +11210,11 @@
       </c>
       <c r="C91" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E91" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -11369,19 +11222,19 @@
       </c>
       <c r="F91" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G91" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H91" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11393,19 +11246,19 @@
       </c>
       <c r="C92" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>1</v>
+      </c>
+      <c r="D92" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>11</v>
+      </c>
+      <c r="E92" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
         <v>3</v>
       </c>
-      <c r="D92" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
-      </c>
-      <c r="E92" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
-      </c>
       <c r="F92" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G92" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11413,7 +11266,7 @@
       </c>
       <c r="H92" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11437,11 +11290,11 @@
       </c>
       <c r="E93" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F93" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G93" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11453,7 +11306,7 @@
       </c>
       <c r="I93" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11465,23 +11318,23 @@
       </c>
       <c r="C94" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>11</v>
+      </c>
+      <c r="E94" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
+        <v>1</v>
+      </c>
+      <c r="F94" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>12</v>
       </c>
-      <c r="E94" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
-      </c>
-      <c r="F94" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
-      </c>
       <c r="G94" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H94" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11489,7 +11342,7 @@
       </c>
       <c r="I94" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11501,31 +11354,31 @@
       </c>
       <c r="C95" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>1</v>
+      </c>
+      <c r="E95" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
         <v>4</v>
       </c>
-      <c r="E95" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
-      </c>
       <c r="F95" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G95" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H95" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11537,27 +11390,27 @@
       </c>
       <c r="C96" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>12</v>
+      </c>
+      <c r="E96" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
+        <v>3</v>
+      </c>
+      <c r="F96" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>8</v>
       </c>
-      <c r="E96" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
-      </c>
-      <c r="F96" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
-      </c>
       <c r="G96" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H96" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11573,31 +11426,31 @@
       </c>
       <c r="C97" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>2</v>
+      </c>
+      <c r="E97" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
         <v>4</v>
       </c>
-      <c r="E97" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
-      </c>
       <c r="F97" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G97" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H97" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11609,31 +11462,31 @@
       </c>
       <c r="C98" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D98" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E98" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F98" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G98" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H98" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11645,19 +11498,19 @@
       </c>
       <c r="C99" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D99" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E99" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F99" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G99" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11669,7 +11522,7 @@
       </c>
       <c r="I99" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11681,23 +11534,23 @@
       </c>
       <c r="C100" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D100" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E100" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F100" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G100" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H100" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11717,7 +11570,7 @@
       </c>
       <c r="C101" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D101" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -11725,11 +11578,11 @@
       </c>
       <c r="E101" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F101" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G101" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11741,7 +11594,7 @@
       </c>
       <c r="I101" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11753,27 +11606,27 @@
       </c>
       <c r="C102" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D102" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E102" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F102" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G102" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H102" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>

--- a/xlsx/loaddata.xlsx
+++ b/xlsx/loaddata.xlsx
@@ -3006,10 +3006,10 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="I27 B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="33.14"/>
@@ -3086,10 +3086,10 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="1" sqref="I27 B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.41"/>
@@ -3284,10 +3284,10 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
+      <selection pane="topLeft" activeCell="F21" activeCellId="1" sqref="I27 F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="33.14"/>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="E3" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3360,7 +3360,7 @@
       </c>
       <c r="E4" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3379,7 +3379,7 @@
       </c>
       <c r="E5" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3398,7 +3398,7 @@
       </c>
       <c r="E6" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="E7" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="E8" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3455,7 +3455,7 @@
       </c>
       <c r="E9" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="E10" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3493,7 +3493,7 @@
       </c>
       <c r="E11" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="E13" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3550,7 +3550,7 @@
       </c>
       <c r="E14" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3569,7 +3569,7 @@
       </c>
       <c r="E15" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3588,7 +3588,7 @@
       </c>
       <c r="E16" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="E17" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3638,10 +3638,10 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+      <selection pane="topLeft" activeCell="G13" activeCellId="1" sqref="I27 G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="33.14"/>
@@ -3909,10 +3909,10 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
+      <selection pane="topLeft" activeCell="E32" activeCellId="1" sqref="I27 E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="33.14"/>
@@ -4016,10 +4016,10 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="I27 B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="33.14"/>
@@ -4160,10 +4160,10 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="1" sqref="I27 E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="33.14"/>
@@ -4304,10 +4304,10 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="I27 B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.85"/>
@@ -4383,10 +4383,10 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="I27 C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.85"/>
@@ -4462,10 +4462,10 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="I27 B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.42"/>
   </cols>
@@ -4522,10 +4522,10 @@
   <dimension ref="A1:K103"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="I27" activeCellId="0" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15"/>
@@ -4765,7 +4765,7 @@
       </c>
       <c r="H8" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>65</v>
@@ -4798,7 +4798,7 @@
       </c>
       <c r="H9" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I9" s="11" t="s">
         <v>65</v>
@@ -4831,7 +4831,7 @@
       </c>
       <c r="H10" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>65</v>
@@ -4864,7 +4864,7 @@
       </c>
       <c r="H11" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" s="11" t="s">
         <v>64</v>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="H12" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>64</v>
@@ -4930,10 +4930,10 @@
       </c>
       <c r="H13" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>64</v>
+        <v>3</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>65</v>
       </c>
       <c r="J13" s="0" t="s">
         <v>65</v>
@@ -4963,10 +4963,10 @@
       </c>
       <c r="H14" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>64</v>
+        <v>1</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>65</v>
       </c>
       <c r="J14" s="0" t="s">
         <v>65</v>
@@ -4996,7 +4996,7 @@
       </c>
       <c r="H15" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>64</v>
@@ -5029,7 +5029,7 @@
       </c>
       <c r="H16" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" s="11" t="s">
         <v>64</v>
@@ -5095,7 +5095,7 @@
       </c>
       <c r="H18" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>64</v>
@@ -5128,10 +5128,10 @@
       </c>
       <c r="H19" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>64</v>
+        <v>3</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>65</v>
       </c>
       <c r="J19" s="0" t="s">
         <v>65</v>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="H20" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>64</v>
@@ -5194,7 +5194,7 @@
       </c>
       <c r="H21" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I21" s="11" t="s">
         <v>64</v>
@@ -5227,7 +5227,7 @@
       </c>
       <c r="H22" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I22" s="11" t="s">
         <v>64</v>
@@ -5260,7 +5260,7 @@
       </c>
       <c r="H23" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" s="11" t="s">
         <v>64</v>
@@ -5293,7 +5293,7 @@
       </c>
       <c r="H24" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I24" s="11" t="s">
         <v>64</v>
@@ -5326,10 +5326,10 @@
       </c>
       <c r="H25" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>64</v>
+        <v>2</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>65</v>
       </c>
       <c r="J25" s="0" t="s">
         <v>65</v>
@@ -5359,7 +5359,7 @@
       </c>
       <c r="H26" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I26" s="11" t="s">
         <v>64</v>
@@ -5392,10 +5392,10 @@
       </c>
       <c r="H27" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>64</v>
+        <v>4</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>65</v>
       </c>
       <c r="J27" s="0" t="s">
         <v>65</v>
@@ -5425,7 +5425,7 @@
       </c>
       <c r="H28" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I28" s="11" t="s">
         <v>64</v>
@@ -5557,7 +5557,7 @@
       </c>
       <c r="H32" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I32" s="11" t="s">
         <v>65</v>
@@ -5590,7 +5590,7 @@
       </c>
       <c r="H33" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I33" s="11" t="s">
         <v>65</v>
@@ -5623,7 +5623,7 @@
       </c>
       <c r="H34" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I34" s="11" t="s">
         <v>65</v>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="H36" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I36" s="11" t="s">
         <v>64</v>
@@ -5722,7 +5722,7 @@
       </c>
       <c r="H37" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I37" s="11" t="s">
         <v>64</v>
@@ -5755,7 +5755,7 @@
       </c>
       <c r="H38" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I38" s="11" t="s">
         <v>64</v>
@@ -5788,7 +5788,7 @@
       </c>
       <c r="H39" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I39" s="11" t="s">
         <v>64</v>
@@ -5821,7 +5821,7 @@
       </c>
       <c r="H40" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I40" s="11" t="s">
         <v>65</v>
@@ -5854,7 +5854,7 @@
       </c>
       <c r="H41" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41" s="11" t="s">
         <v>65</v>
@@ -5920,7 +5920,7 @@
       </c>
       <c r="H43" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I43" s="11" t="s">
         <v>65</v>
@@ -5953,7 +5953,7 @@
       </c>
       <c r="H44" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44" s="11" t="s">
         <v>64</v>
@@ -5986,7 +5986,7 @@
       </c>
       <c r="H45" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I45" s="11" t="s">
         <v>64</v>
@@ -6052,7 +6052,7 @@
       </c>
       <c r="H47" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I47" s="11" t="s">
         <v>64</v>
@@ -6085,7 +6085,7 @@
       </c>
       <c r="H48" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I48" s="11" t="s">
         <v>65</v>
@@ -6118,7 +6118,7 @@
       </c>
       <c r="H49" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I49" s="11" t="s">
         <v>65</v>
@@ -6151,7 +6151,7 @@
       </c>
       <c r="H50" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I50" s="11" t="s">
         <v>65</v>
@@ -6184,7 +6184,7 @@
       </c>
       <c r="H51" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I51" s="11" t="s">
         <v>65</v>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="H52" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I52" s="11" t="s">
         <v>65</v>
@@ -6250,7 +6250,7 @@
       </c>
       <c r="H53" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I53" s="11" t="s">
         <v>64</v>
@@ -6316,7 +6316,7 @@
       </c>
       <c r="H55" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I55" s="11" t="s">
         <v>64</v>
@@ -6349,7 +6349,7 @@
       </c>
       <c r="H56" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I56" s="11" t="s">
         <v>64</v>
@@ -6382,7 +6382,7 @@
       </c>
       <c r="H57" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I57" s="11" t="s">
         <v>65</v>
@@ -6448,7 +6448,7 @@
       </c>
       <c r="H59" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I59" s="11" t="s">
         <v>65</v>
@@ -6514,7 +6514,7 @@
       </c>
       <c r="H61" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I61" s="11" t="s">
         <v>65</v>
@@ -6547,7 +6547,7 @@
       </c>
       <c r="H62" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I62" s="11" t="s">
         <v>65</v>
@@ -6580,7 +6580,7 @@
       </c>
       <c r="H63" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I63" s="11" t="s">
         <v>65</v>
@@ -6613,7 +6613,7 @@
       </c>
       <c r="H64" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I64" s="11" t="s">
         <v>64</v>
@@ -6679,7 +6679,7 @@
       </c>
       <c r="H66" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I66" s="11" t="s">
         <v>64</v>
@@ -6712,7 +6712,7 @@
       </c>
       <c r="H67" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I67" s="11" t="s">
         <v>64</v>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="H68" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" s="11" t="s">
         <v>65</v>
@@ -6778,7 +6778,7 @@
       </c>
       <c r="H69" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I69" s="11" t="s">
         <v>65</v>
@@ -6844,7 +6844,7 @@
       </c>
       <c r="H71" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I71" s="11" t="s">
         <v>65</v>
@@ -6877,7 +6877,7 @@
       </c>
       <c r="H72" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I72" s="11" t="s">
         <v>64</v>
@@ -6910,7 +6910,7 @@
       </c>
       <c r="H73" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73" s="11" t="s">
         <v>64</v>
@@ -7009,7 +7009,7 @@
       </c>
       <c r="H76" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" s="11" t="s">
         <v>65</v>
@@ -7042,7 +7042,7 @@
       </c>
       <c r="H77" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I77" s="11" t="s">
         <v>65</v>
@@ -7075,7 +7075,7 @@
       </c>
       <c r="H78" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78" s="11" t="s">
         <v>65</v>
@@ -7108,7 +7108,7 @@
       </c>
       <c r="H79" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I79" s="11" t="s">
         <v>65</v>
@@ -7141,7 +7141,7 @@
       </c>
       <c r="H80" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I80" s="11" t="s">
         <v>65</v>
@@ -7174,7 +7174,7 @@
       </c>
       <c r="H81" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I81" s="11" t="s">
         <v>65</v>
@@ -7207,7 +7207,7 @@
       </c>
       <c r="H82" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82" s="11" t="s">
         <v>65</v>
@@ -7240,7 +7240,7 @@
       </c>
       <c r="H83" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" s="11" t="s">
         <v>65</v>
@@ -7273,7 +7273,7 @@
       </c>
       <c r="H84" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I84" s="11" t="s">
         <v>65</v>
@@ -7339,7 +7339,7 @@
       </c>
       <c r="H86" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I86" s="11" t="s">
         <v>65</v>
@@ -7372,7 +7372,7 @@
       </c>
       <c r="H87" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I87" s="11" t="s">
         <v>65</v>
@@ -7405,7 +7405,7 @@
       </c>
       <c r="H88" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88" s="11" t="s">
         <v>65</v>
@@ -7438,7 +7438,7 @@
       </c>
       <c r="H89" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I89" s="11" t="s">
         <v>65</v>
@@ -7504,7 +7504,7 @@
       </c>
       <c r="H91" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91" s="11" t="s">
         <v>65</v>
@@ -7570,7 +7570,7 @@
       </c>
       <c r="H93" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I93" s="11" t="s">
         <v>65</v>
@@ -7603,7 +7603,7 @@
       </c>
       <c r="H94" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I94" s="11" t="s">
         <v>65</v>
@@ -7636,7 +7636,7 @@
       </c>
       <c r="H95" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I95" s="11" t="s">
         <v>65</v>
@@ -7669,7 +7669,7 @@
       </c>
       <c r="H96" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I96" s="11" t="s">
         <v>65</v>
@@ -7735,7 +7735,7 @@
       </c>
       <c r="H98" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I98" s="11" t="s">
         <v>65</v>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="H100" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I100" s="11" t="s">
         <v>65</v>
@@ -7834,7 +7834,7 @@
       </c>
       <c r="H101" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" s="11" t="s">
         <v>65</v>
@@ -7867,7 +7867,7 @@
       </c>
       <c r="H102" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I102" s="0" t="s">
         <v>64</v>
@@ -8003,10 +8003,10 @@
   <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+      <selection pane="topLeft" activeCell="J2" activeCellId="1" sqref="I27 J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.28"/>
@@ -8075,15 +8075,15 @@
       </c>
       <c r="E3" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8109,11 +8109,11 @@
       </c>
       <c r="E4" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G4" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8143,23 +8143,23 @@
       </c>
       <c r="E5" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G5" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8177,19 +8177,19 @@
       </c>
       <c r="E6" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G6" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8211,11 +8211,11 @@
       </c>
       <c r="E7" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F7" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G7" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8223,7 +8223,7 @@
       </c>
       <c r="H7" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8245,23 +8245,23 @@
       </c>
       <c r="E8" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G8" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8273,7 +8273,7 @@
       </c>
       <c r="C9" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>1</v>
@@ -8284,7 +8284,7 @@
       </c>
       <c r="F9" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G9" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8296,7 +8296,7 @@
       </c>
       <c r="I9" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8308,7 +8308,7 @@
       </c>
       <c r="C10" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>1</v>
@@ -8319,7 +8319,7 @@
       </c>
       <c r="F10" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G10" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8327,11 +8327,11 @@
       </c>
       <c r="H10" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8350,23 +8350,23 @@
       </c>
       <c r="E11" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F11" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G11" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8378,7 +8378,7 @@
       </c>
       <c r="C12" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D12" s="4" t="n">
         <v>1</v>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="G12" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8413,7 +8413,7 @@
       </c>
       <c r="C13" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>1</v>
@@ -8424,11 +8424,11 @@
       </c>
       <c r="F13" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G13" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8448,7 +8448,7 @@
       </c>
       <c r="C14" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>1</v>
@@ -8459,7 +8459,7 @@
       </c>
       <c r="F14" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G14" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8471,7 +8471,7 @@
       </c>
       <c r="I14" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8483,18 +8483,18 @@
       </c>
       <c r="C15" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E15" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F15" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G15" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8502,7 +8502,7 @@
       </c>
       <c r="H15" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8518,14 +8518,14 @@
       </c>
       <c r="C16" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E16" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -8553,18 +8553,18 @@
       </c>
       <c r="C17" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E17" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F17" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G17" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8572,11 +8572,11 @@
       </c>
       <c r="H17" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8588,26 +8588,26 @@
       </c>
       <c r="C18" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E18" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G18" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8623,22 +8623,22 @@
       </c>
       <c r="C19" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E19" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G19" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8665,7 +8665,7 @@
       </c>
       <c r="E20" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F20" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -8673,15 +8673,15 @@
       </c>
       <c r="G20" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8693,22 +8693,22 @@
       </c>
       <c r="C21" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E21" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F21" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G21" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8728,18 +8728,18 @@
       </c>
       <c r="C22" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E22" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F22" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G22" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8751,7 +8751,7 @@
       </c>
       <c r="I22" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8763,30 +8763,30 @@
       </c>
       <c r="C23" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D23" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E23" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G23" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8798,19 +8798,19 @@
       </c>
       <c r="C24" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>1</v>
+      </c>
+      <c r="D24" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>7</v>
+      </c>
+      <c r="E24" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
         <v>4</v>
       </c>
-      <c r="D24" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
-      </c>
-      <c r="E24" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
-      </c>
       <c r="F24" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G24" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8818,7 +8818,7 @@
       </c>
       <c r="H24" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8834,19 +8834,19 @@
       </c>
       <c r="C25" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>4</v>
+      </c>
+      <c r="D25" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>6</v>
       </c>
-      <c r="D25" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
-      </c>
       <c r="E25" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F25" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G25" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8870,19 +8870,19 @@
       </c>
       <c r="C26" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G26" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8906,11 +8906,11 @@
       </c>
       <c r="C27" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D27" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E27" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -8922,7 +8922,7 @@
       </c>
       <c r="G27" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8930,7 +8930,7 @@
       </c>
       <c r="I27" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8942,11 +8942,11 @@
       </c>
       <c r="C28" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E28" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -8954,7 +8954,7 @@
       </c>
       <c r="F28" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G28" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8962,11 +8962,11 @@
       </c>
       <c r="H28" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8978,23 +8978,23 @@
       </c>
       <c r="C29" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>4</v>
+      </c>
+      <c r="D29" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>8</v>
+      </c>
+      <c r="E29" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
+        <v>4</v>
+      </c>
+      <c r="F29" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>6</v>
       </c>
-      <c r="D29" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
-      </c>
-      <c r="E29" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
-      </c>
-      <c r="F29" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
-      </c>
       <c r="G29" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9002,7 +9002,7 @@
       </c>
       <c r="I29" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9014,11 +9014,11 @@
       </c>
       <c r="C30" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D30" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E30" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -9026,19 +9026,19 @@
       </c>
       <c r="F30" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G30" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9050,7 +9050,7 @@
       </c>
       <c r="C31" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D31" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -9058,23 +9058,23 @@
       </c>
       <c r="E31" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F31" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G31" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9086,31 +9086,31 @@
       </c>
       <c r="C32" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E32" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F32" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G32" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9122,11 +9122,11 @@
       </c>
       <c r="C33" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D33" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E33" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -9134,7 +9134,7 @@
       </c>
       <c r="F33" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G33" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9142,7 +9142,7 @@
       </c>
       <c r="H33" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9158,15 +9158,15 @@
       </c>
       <c r="C34" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E34" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -9174,15 +9174,15 @@
       </c>
       <c r="G34" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9194,31 +9194,31 @@
       </c>
       <c r="C35" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D35" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E35" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F35" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G35" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H35" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9230,7 +9230,7 @@
       </c>
       <c r="C36" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D36" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -9242,19 +9242,19 @@
       </c>
       <c r="F36" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G36" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H36" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9266,31 +9266,31 @@
       </c>
       <c r="C37" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E37" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F37" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G37" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9302,7 +9302,7 @@
       </c>
       <c r="C38" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D38" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -9310,11 +9310,11 @@
       </c>
       <c r="E38" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F38" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G38" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9322,7 +9322,7 @@
       </c>
       <c r="H38" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9342,27 +9342,27 @@
       </c>
       <c r="D39" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E39" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F39" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G39" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9374,23 +9374,23 @@
       </c>
       <c r="C40" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>7</v>
+      </c>
+      <c r="D40" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>3</v>
+      </c>
+      <c r="E40" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
         <v>4</v>
       </c>
-      <c r="D40" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
-      </c>
-      <c r="E40" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
-      </c>
       <c r="F40" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G40" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H40" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9398,7 +9398,7 @@
       </c>
       <c r="I40" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9410,7 +9410,7 @@
       </c>
       <c r="C41" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -9418,15 +9418,15 @@
       </c>
       <c r="E41" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F41" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G41" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H41" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9446,31 +9446,31 @@
       </c>
       <c r="C42" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>4</v>
+      </c>
+      <c r="D42" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>10</v>
+      </c>
+      <c r="E42" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
         <v>3</v>
       </c>
-      <c r="D42" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
-      </c>
-      <c r="E42" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
-      </c>
       <c r="F42" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G42" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9486,15 +9486,15 @@
       </c>
       <c r="D43" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E43" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F43" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G43" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9502,7 +9502,7 @@
       </c>
       <c r="H43" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9518,20 +9518,20 @@
       </c>
       <c r="C44" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D44" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E44" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
+        <v>3</v>
+      </c>
+      <c r="F44" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>4</v>
       </c>
-      <c r="F44" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
-      </c>
       <c r="G44" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
         <v>1</v>
@@ -9542,7 +9542,7 @@
       </c>
       <c r="I44" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9558,15 +9558,15 @@
       </c>
       <c r="D45" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E45" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F45" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G45" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9590,23 +9590,23 @@
       </c>
       <c r="C46" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E46" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F46" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G46" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H46" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9626,23 +9626,23 @@
       </c>
       <c r="C47" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D47" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>10</v>
+      </c>
+      <c r="E47" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
+        <v>4</v>
+      </c>
+      <c r="F47" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>12</v>
       </c>
-      <c r="E47" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
-      </c>
-      <c r="F47" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
-      </c>
       <c r="G47" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H47" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9662,15 +9662,15 @@
       </c>
       <c r="C48" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D48" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F48" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -9678,11 +9678,11 @@
       </c>
       <c r="G48" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H48" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9698,31 +9698,31 @@
       </c>
       <c r="C49" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>2</v>
+      </c>
+      <c r="D49" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>7</v>
+      </c>
+      <c r="E49" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
+        <v>1</v>
+      </c>
+      <c r="F49" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>5</v>
       </c>
-      <c r="D49" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
-      </c>
-      <c r="E49" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
-      </c>
-      <c r="F49" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
-      </c>
       <c r="G49" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
         <v>2</v>
       </c>
       <c r="H49" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9734,31 +9734,31 @@
       </c>
       <c r="C50" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>4</v>
+      </c>
+      <c r="D50" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>1</v>
+      </c>
+      <c r="E50" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
+        <v>2</v>
+      </c>
+      <c r="F50" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>5</v>
       </c>
-      <c r="D50" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
-      </c>
-      <c r="E50" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
-      </c>
-      <c r="F50" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
-      </c>
       <c r="G50" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
         <v>2</v>
       </c>
       <c r="H50" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9770,11 +9770,11 @@
       </c>
       <c r="C51" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D51" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E51" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -9782,7 +9782,7 @@
       </c>
       <c r="F51" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G51" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9806,7 +9806,7 @@
       </c>
       <c r="C52" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -9814,15 +9814,15 @@
       </c>
       <c r="E52" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F52" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G52" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H52" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9830,7 +9830,7 @@
       </c>
       <c r="I52" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9842,23 +9842,23 @@
       </c>
       <c r="C53" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D53" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E53" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F53" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G53" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H53" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9866,7 +9866,7 @@
       </c>
       <c r="I53" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9878,11 +9878,11 @@
       </c>
       <c r="C54" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D54" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E54" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -9890,11 +9890,11 @@
       </c>
       <c r="F54" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G54" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H54" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9902,7 +9902,7 @@
       </c>
       <c r="I54" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9914,19 +9914,19 @@
       </c>
       <c r="C55" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E55" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F55" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G55" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9934,7 +9934,7 @@
       </c>
       <c r="H55" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9950,11 +9950,11 @@
       </c>
       <c r="C56" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E56" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -9962,7 +9962,7 @@
       </c>
       <c r="F56" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G56" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9990,7 +9990,7 @@
       </c>
       <c r="D57" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E57" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -9998,19 +9998,19 @@
       </c>
       <c r="F57" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G57" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H57" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10022,11 +10022,11 @@
       </c>
       <c r="C58" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E58" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -10058,19 +10058,19 @@
       </c>
       <c r="C59" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E59" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F59" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G59" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10094,31 +10094,31 @@
       </c>
       <c r="C60" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>5</v>
+      </c>
+      <c r="D60" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>7</v>
       </c>
-      <c r="D60" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
-      </c>
       <c r="E60" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F60" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G60" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H60" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10130,15 +10130,15 @@
       </c>
       <c r="C61" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D61" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E61" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F61" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -10146,11 +10146,11 @@
       </c>
       <c r="G61" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H61" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10170,15 +10170,15 @@
       </c>
       <c r="D62" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E62" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F62" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G62" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10186,11 +10186,11 @@
       </c>
       <c r="H62" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10202,19 +10202,19 @@
       </c>
       <c r="C63" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D63" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E63" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F63" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G63" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10226,7 +10226,7 @@
       </c>
       <c r="I63" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10238,23 +10238,23 @@
       </c>
       <c r="C64" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>2</v>
+      </c>
+      <c r="D64" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>6</v>
+      </c>
+      <c r="E64" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
         <v>4</v>
       </c>
-      <c r="D64" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
-      </c>
-      <c r="E64" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
-      </c>
       <c r="F64" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G64" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H64" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10274,19 +10274,19 @@
       </c>
       <c r="C65" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D65" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E65" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F65" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G65" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10310,23 +10310,23 @@
       </c>
       <c r="C66" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E66" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F66" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G66" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H66" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10346,31 +10346,31 @@
       </c>
       <c r="C67" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D67" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>10</v>
+      </c>
+      <c r="E67" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
+        <v>4</v>
+      </c>
+      <c r="F67" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>11</v>
       </c>
-      <c r="E67" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
-      </c>
-      <c r="F67" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
-      </c>
       <c r="G67" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H67" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10382,23 +10382,23 @@
       </c>
       <c r="C68" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D68" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E68" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F68" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G68" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H68" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10406,7 +10406,7 @@
       </c>
       <c r="I68" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10418,11 +10418,11 @@
       </c>
       <c r="C69" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E69" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -10430,11 +10430,11 @@
       </c>
       <c r="F69" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G69" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H69" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10454,19 +10454,19 @@
       </c>
       <c r="C70" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D70" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E70" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F70" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G70" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10478,7 +10478,7 @@
       </c>
       <c r="I70" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10490,23 +10490,23 @@
       </c>
       <c r="C71" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D71" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E71" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F71" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G71" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H71" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10514,7 +10514,7 @@
       </c>
       <c r="I71" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10526,19 +10526,19 @@
       </c>
       <c r="C72" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D72" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E72" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F72" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G72" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10562,19 +10562,19 @@
       </c>
       <c r="C73" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D73" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E73" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F73" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G73" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10586,7 +10586,7 @@
       </c>
       <c r="I73" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10598,19 +10598,19 @@
       </c>
       <c r="C74" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D74" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E74" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F74" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G74" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10618,11 +10618,11 @@
       </c>
       <c r="H74" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10634,23 +10634,23 @@
       </c>
       <c r="C75" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>5</v>
+      </c>
+      <c r="D75" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>5</v>
+      </c>
+      <c r="E75" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
+        <v>2</v>
+      </c>
+      <c r="F75" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>6</v>
       </c>
-      <c r="D75" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
-      </c>
-      <c r="E75" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
-      </c>
-      <c r="F75" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
-      </c>
       <c r="G75" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H75" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10658,7 +10658,7 @@
       </c>
       <c r="I75" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10670,27 +10670,27 @@
       </c>
       <c r="C76" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E76" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
+        <v>2</v>
+      </c>
+      <c r="F76" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>4</v>
       </c>
-      <c r="F76" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
-      </c>
       <c r="G76" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H76" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10710,15 +10710,15 @@
       </c>
       <c r="D77" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E77" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F77" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G77" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10726,7 +10726,7 @@
       </c>
       <c r="H77" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10742,19 +10742,19 @@
       </c>
       <c r="C78" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D78" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E78" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F78" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G78" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10762,7 +10762,7 @@
       </c>
       <c r="H78" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10778,31 +10778,31 @@
       </c>
       <c r="C79" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E79" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F79" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G79" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H79" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10814,11 +10814,11 @@
       </c>
       <c r="C80" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D80" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E80" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -10826,11 +10826,11 @@
       </c>
       <c r="F80" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G80" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H80" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10850,11 +10850,11 @@
       </c>
       <c r="C81" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D81" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E81" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -10862,11 +10862,11 @@
       </c>
       <c r="F81" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G81" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H81" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10874,7 +10874,7 @@
       </c>
       <c r="I81" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10890,15 +10890,15 @@
       </c>
       <c r="D82" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E82" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F82" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G82" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10926,15 +10926,15 @@
       </c>
       <c r="D83" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E83" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F83" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G83" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10958,19 +10958,19 @@
       </c>
       <c r="C84" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D84" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E84" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F84" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G84" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10982,7 +10982,7 @@
       </c>
       <c r="I84" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10994,23 +10994,23 @@
       </c>
       <c r="C85" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>4</v>
+      </c>
+      <c r="D85" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>12</v>
+      </c>
+      <c r="E85" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
         <v>3</v>
       </c>
-      <c r="D85" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
-      </c>
-      <c r="E85" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
-      </c>
       <c r="F85" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G85" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H85" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11030,11 +11030,11 @@
       </c>
       <c r="C86" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D86" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E86" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -11050,11 +11050,11 @@
       </c>
       <c r="H86" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11066,19 +11066,19 @@
       </c>
       <c r="C87" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E87" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F87" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G87" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11086,7 +11086,7 @@
       </c>
       <c r="H87" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11102,19 +11102,19 @@
       </c>
       <c r="C88" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E88" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F88" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G88" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11138,19 +11138,19 @@
       </c>
       <c r="C89" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D89" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E89" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F89" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G89" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11162,7 +11162,7 @@
       </c>
       <c r="I89" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11174,23 +11174,23 @@
       </c>
       <c r="C90" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>5</v>
+      </c>
+      <c r="D90" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>4</v>
+      </c>
+      <c r="E90" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
+        <v>1</v>
+      </c>
+      <c r="F90" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>6</v>
       </c>
-      <c r="D90" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
-      </c>
-      <c r="E90" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
-      </c>
-      <c r="F90" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
-      </c>
       <c r="G90" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H90" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11198,7 +11198,7 @@
       </c>
       <c r="I90" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11210,23 +11210,23 @@
       </c>
       <c r="C91" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>1</v>
+      </c>
+      <c r="D91" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>11</v>
+      </c>
+      <c r="E91" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
         <v>3</v>
       </c>
-      <c r="D91" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
-      </c>
-      <c r="E91" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
-      </c>
       <c r="F91" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G91" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H91" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11234,7 +11234,7 @@
       </c>
       <c r="I91" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11246,19 +11246,19 @@
       </c>
       <c r="C92" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D92" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E92" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F92" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G92" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11266,11 +11266,11 @@
       </c>
       <c r="H92" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11282,19 +11282,19 @@
       </c>
       <c r="C93" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D93" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E93" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F93" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G93" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11302,11 +11302,11 @@
       </c>
       <c r="H93" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11318,23 +11318,23 @@
       </c>
       <c r="C94" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D94" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E94" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F94" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G94" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H94" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11342,7 +11342,7 @@
       </c>
       <c r="I94" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11354,7 +11354,7 @@
       </c>
       <c r="C95" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -11362,11 +11362,11 @@
       </c>
       <c r="E95" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F95" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G95" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11374,11 +11374,11 @@
       </c>
       <c r="H95" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11394,11 +11394,11 @@
       </c>
       <c r="D96" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E96" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F96" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -11410,11 +11410,11 @@
       </c>
       <c r="H96" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11430,19 +11430,19 @@
       </c>
       <c r="D97" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E97" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F97" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G97" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H97" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11462,19 +11462,19 @@
       </c>
       <c r="C98" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D98" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E98" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F98" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G98" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11486,7 +11486,7 @@
       </c>
       <c r="I98" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11498,23 +11498,23 @@
       </c>
       <c r="C99" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D99" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E99" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F99" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G99" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H99" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11522,7 +11522,7 @@
       </c>
       <c r="I99" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11534,27 +11534,27 @@
       </c>
       <c r="C100" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D100" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E100" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F100" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G100" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H100" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11570,19 +11570,19 @@
       </c>
       <c r="C101" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D101" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E101" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F101" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G101" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11594,7 +11594,7 @@
       </c>
       <c r="I101" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11610,19 +11610,19 @@
       </c>
       <c r="D102" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E102" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F102" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G102" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H102" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>

--- a/xlsx/loaddata.xlsx
+++ b/xlsx/loaddata.xlsx
@@ -3006,10 +3006,10 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="I27 B4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="33.14"/>
@@ -3086,10 +3086,10 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="1" sqref="I27 B9"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.41"/>
@@ -3284,10 +3284,10 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="1" sqref="I27 F21"/>
+      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="33.14"/>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="E4" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="E7" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="E8" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3455,7 +3455,7 @@
       </c>
       <c r="E9" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="E10" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3512,7 +3512,7 @@
       </c>
       <c r="E12" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="E13" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3550,7 +3550,7 @@
       </c>
       <c r="E14" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3569,7 +3569,7 @@
       </c>
       <c r="E15" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="E17" s="21" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3638,10 +3638,10 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="1" sqref="I27 G13"/>
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="33.14"/>
@@ -3909,10 +3909,10 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E32" activeCellId="1" sqref="I27 E32"/>
+      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="33.14"/>
@@ -4016,10 +4016,10 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="I27 B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="33.14"/>
@@ -4160,10 +4160,10 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="1" sqref="I27 E13"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="33.14"/>
@@ -4304,10 +4304,10 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="I27 B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.85"/>
@@ -4383,10 +4383,10 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="I27 C5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.85"/>
@@ -4462,10 +4462,10 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="I27 B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.42"/>
   </cols>
@@ -4522,10 +4522,10 @@
   <dimension ref="A1:K103"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I27" activeCellId="0" sqref="I27"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15"/>
@@ -4582,7 +4582,7 @@
     </row>
     <row r="3" customFormat="false" ht="11.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
-        <v>2</v>
+        <v>20000</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>59</v>
@@ -4614,7 +4614,7 @@
     </row>
     <row r="4" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
-        <v>3</v>
+        <v>20001</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>66</v>
@@ -4646,7 +4646,7 @@
     </row>
     <row r="5" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
-        <v>4</v>
+        <v>20002</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>71</v>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
-        <v>5</v>
+        <v>20003</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>76</v>
@@ -4710,7 +4710,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
-        <v>6</v>
+        <v>20004</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>81</v>
@@ -4743,7 +4743,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
-        <v>7</v>
+        <v>20005</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>86</v>
@@ -4765,7 +4765,7 @@
       </c>
       <c r="H8" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>65</v>
@@ -4776,7 +4776,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
-        <v>8</v>
+        <v>20006</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>91</v>
@@ -4798,7 +4798,7 @@
       </c>
       <c r="H9" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I9" s="11" t="s">
         <v>65</v>
@@ -4809,7 +4809,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
-        <v>9</v>
+        <v>20007</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>96</v>
@@ -4831,7 +4831,7 @@
       </c>
       <c r="H10" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>65</v>
@@ -4842,7 +4842,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
-        <v>10</v>
+        <v>20008</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>101</v>
@@ -4875,7 +4875,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="n">
-        <v>11</v>
+        <v>20009</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>106</v>
@@ -4908,7 +4908,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="n">
-        <v>12</v>
+        <v>20010</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>111</v>
@@ -4930,7 +4930,7 @@
       </c>
       <c r="H13" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>65</v>
@@ -4941,7 +4941,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="n">
-        <v>13</v>
+        <v>20011</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>116</v>
@@ -4963,7 +4963,7 @@
       </c>
       <c r="H14" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>65</v>
@@ -4974,7 +4974,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="n">
-        <v>14</v>
+        <v>20012</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>121</v>
@@ -4996,7 +4996,7 @@
       </c>
       <c r="H15" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>64</v>
@@ -5007,7 +5007,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="n">
-        <v>15</v>
+        <v>20013</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>126</v>
@@ -5029,7 +5029,7 @@
       </c>
       <c r="H16" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" s="11" t="s">
         <v>64</v>
@@ -5040,7 +5040,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="n">
-        <v>16</v>
+        <v>20014</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>131</v>
@@ -5062,7 +5062,7 @@
       </c>
       <c r="H17" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" s="11" t="s">
         <v>64</v>
@@ -5073,7 +5073,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="n">
-        <v>17</v>
+        <v>20015</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>136</v>
@@ -5106,7 +5106,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="n">
-        <v>18</v>
+        <v>20016</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>141</v>
@@ -5128,7 +5128,7 @@
       </c>
       <c r="H19" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19" s="0" t="s">
         <v>65</v>
@@ -5139,7 +5139,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="n">
-        <v>19</v>
+        <v>20017</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>146</v>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="H20" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>64</v>
@@ -5172,7 +5172,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="n">
-        <v>20</v>
+        <v>20018</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>151</v>
@@ -5194,7 +5194,7 @@
       </c>
       <c r="H21" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I21" s="11" t="s">
         <v>64</v>
@@ -5205,7 +5205,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="n">
-        <v>21</v>
+        <v>20019</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>156</v>
@@ -5227,7 +5227,7 @@
       </c>
       <c r="H22" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I22" s="11" t="s">
         <v>64</v>
@@ -5238,7 +5238,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="n">
-        <v>22</v>
+        <v>20020</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>161</v>
@@ -5260,7 +5260,7 @@
       </c>
       <c r="H23" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" s="11" t="s">
         <v>64</v>
@@ -5271,7 +5271,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="n">
-        <v>23</v>
+        <v>20021</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>166</v>
@@ -5293,7 +5293,7 @@
       </c>
       <c r="H24" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I24" s="11" t="s">
         <v>64</v>
@@ -5304,7 +5304,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="n">
-        <v>24</v>
+        <v>20022</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>171</v>
@@ -5326,7 +5326,7 @@
       </c>
       <c r="H25" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I25" s="0" t="s">
         <v>65</v>
@@ -5337,7 +5337,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="n">
-        <v>25</v>
+        <v>20023</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>176</v>
@@ -5359,7 +5359,7 @@
       </c>
       <c r="H26" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I26" s="11" t="s">
         <v>64</v>
@@ -5370,7 +5370,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="n">
-        <v>26</v>
+        <v>20024</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>181</v>
@@ -5392,7 +5392,7 @@
       </c>
       <c r="H27" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I27" s="0" t="s">
         <v>65</v>
@@ -5403,7 +5403,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="n">
-        <v>27</v>
+        <v>20025</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>186</v>
@@ -5425,7 +5425,7 @@
       </c>
       <c r="H28" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I28" s="11" t="s">
         <v>64</v>
@@ -5436,7 +5436,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="n">
-        <v>28</v>
+        <v>20026</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>191</v>
@@ -5458,7 +5458,7 @@
       </c>
       <c r="H29" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I29" s="11" t="s">
         <v>64</v>
@@ -5469,7 +5469,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="n">
-        <v>29</v>
+        <v>20027</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>196</v>
@@ -5491,7 +5491,7 @@
       </c>
       <c r="H30" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" s="11" t="s">
         <v>64</v>
@@ -5502,7 +5502,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="n">
-        <v>30</v>
+        <v>20028</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>201</v>
@@ -5535,7 +5535,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="n">
-        <v>31</v>
+        <v>20029</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>206</v>
@@ -5557,7 +5557,7 @@
       </c>
       <c r="H32" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" s="11" t="s">
         <v>65</v>
@@ -5568,7 +5568,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="n">
-        <v>32</v>
+        <v>20030</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>211</v>
@@ -5590,7 +5590,7 @@
       </c>
       <c r="H33" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I33" s="11" t="s">
         <v>65</v>
@@ -5601,7 +5601,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="n">
-        <v>33</v>
+        <v>20031</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>216</v>
@@ -5623,7 +5623,7 @@
       </c>
       <c r="H34" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I34" s="11" t="s">
         <v>65</v>
@@ -5634,7 +5634,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="n">
-        <v>34</v>
+        <v>20032</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>221</v>
@@ -5667,7 +5667,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="n">
-        <v>35</v>
+        <v>20033</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>226</v>
@@ -5700,7 +5700,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="n">
-        <v>36</v>
+        <v>20034</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>231</v>
@@ -5722,7 +5722,7 @@
       </c>
       <c r="H37" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37" s="11" t="s">
         <v>64</v>
@@ -5733,7 +5733,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="n">
-        <v>37</v>
+        <v>20035</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>236</v>
@@ -5766,7 +5766,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="n">
-        <v>38</v>
+        <v>20036</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>241</v>
@@ -5788,7 +5788,7 @@
       </c>
       <c r="H39" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I39" s="11" t="s">
         <v>64</v>
@@ -5799,7 +5799,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="n">
-        <v>39</v>
+        <v>20037</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>246</v>
@@ -5832,7 +5832,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="n">
-        <v>40</v>
+        <v>20038</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>251</v>
@@ -5854,7 +5854,7 @@
       </c>
       <c r="H41" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I41" s="11" t="s">
         <v>65</v>
@@ -5865,7 +5865,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="n">
-        <v>41</v>
+        <v>20039</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>146</v>
@@ -5887,7 +5887,7 @@
       </c>
       <c r="H42" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I42" s="11" t="s">
         <v>65</v>
@@ -5898,7 +5898,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="n">
-        <v>42</v>
+        <v>20040</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>260</v>
@@ -5931,7 +5931,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="n">
-        <v>43</v>
+        <v>20041</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>265</v>
@@ -5964,7 +5964,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="n">
-        <v>44</v>
+        <v>20042</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>270</v>
@@ -5986,7 +5986,7 @@
       </c>
       <c r="H45" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I45" s="11" t="s">
         <v>64</v>
@@ -5997,7 +5997,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="n">
-        <v>45</v>
+        <v>20043</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>275</v>
@@ -6019,7 +6019,7 @@
       </c>
       <c r="H46" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I46" s="11" t="s">
         <v>64</v>
@@ -6030,7 +6030,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="n">
-        <v>46</v>
+        <v>20044</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>280</v>
@@ -6063,7 +6063,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="n">
-        <v>47</v>
+        <v>20045</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>285</v>
@@ -6085,7 +6085,7 @@
       </c>
       <c r="H48" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I48" s="11" t="s">
         <v>65</v>
@@ -6096,7 +6096,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="n">
-        <v>48</v>
+        <v>20046</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>280</v>
@@ -6118,7 +6118,7 @@
       </c>
       <c r="H49" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I49" s="11" t="s">
         <v>65</v>
@@ -6129,7 +6129,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="n">
-        <v>49</v>
+        <v>20047</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>294</v>
@@ -6151,7 +6151,7 @@
       </c>
       <c r="H50" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" s="11" t="s">
         <v>65</v>
@@ -6162,7 +6162,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="n">
-        <v>50</v>
+        <v>20048</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>299</v>
@@ -6184,7 +6184,7 @@
       </c>
       <c r="H51" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I51" s="11" t="s">
         <v>65</v>
@@ -6195,7 +6195,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="n">
-        <v>51</v>
+        <v>20049</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>304</v>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="H52" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I52" s="11" t="s">
         <v>65</v>
@@ -6228,7 +6228,7 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="n">
-        <v>52</v>
+        <v>20050</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>309</v>
@@ -6250,7 +6250,7 @@
       </c>
       <c r="H53" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I53" s="11" t="s">
         <v>64</v>
@@ -6261,7 +6261,7 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="n">
-        <v>53</v>
+        <v>20051</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>314</v>
@@ -6294,7 +6294,7 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="n">
-        <v>54</v>
+        <v>20052</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>146</v>
@@ -6316,7 +6316,7 @@
       </c>
       <c r="H55" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I55" s="11" t="s">
         <v>64</v>
@@ -6327,7 +6327,7 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="n">
-        <v>55</v>
+        <v>20053</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>323</v>
@@ -6349,7 +6349,7 @@
       </c>
       <c r="H56" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" s="11" t="s">
         <v>64</v>
@@ -6360,7 +6360,7 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="n">
-        <v>56</v>
+        <v>20054</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>328</v>
@@ -6382,7 +6382,7 @@
       </c>
       <c r="H57" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I57" s="11" t="s">
         <v>65</v>
@@ -6393,7 +6393,7 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="n">
-        <v>57</v>
+        <v>20055</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>181</v>
@@ -6426,7 +6426,7 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="n">
-        <v>58</v>
+        <v>20056</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>337</v>
@@ -6448,7 +6448,7 @@
       </c>
       <c r="H59" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I59" s="11" t="s">
         <v>65</v>
@@ -6459,7 +6459,7 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="n">
-        <v>59</v>
+        <v>20057</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>342</v>
@@ -6481,7 +6481,7 @@
       </c>
       <c r="H60" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I60" s="11" t="s">
         <v>65</v>
@@ -6492,7 +6492,7 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="n">
-        <v>60</v>
+        <v>20058</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>347</v>
@@ -6514,7 +6514,7 @@
       </c>
       <c r="H61" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I61" s="11" t="s">
         <v>65</v>
@@ -6525,7 +6525,7 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="n">
-        <v>61</v>
+        <v>20059</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>352</v>
@@ -6547,7 +6547,7 @@
       </c>
       <c r="H62" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I62" s="11" t="s">
         <v>65</v>
@@ -6558,7 +6558,7 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="n">
-        <v>62</v>
+        <v>20060</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>357</v>
@@ -6580,7 +6580,7 @@
       </c>
       <c r="H63" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" s="11" t="s">
         <v>65</v>
@@ -6591,7 +6591,7 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="n">
-        <v>63</v>
+        <v>20061</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>265</v>
@@ -6613,7 +6613,7 @@
       </c>
       <c r="H64" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I64" s="11" t="s">
         <v>64</v>
@@ -6624,7 +6624,7 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="n">
-        <v>64</v>
+        <v>20062</v>
       </c>
       <c r="B65" s="0" t="s">
         <v>366</v>
@@ -6657,7 +6657,7 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="n">
-        <v>65</v>
+        <v>20063</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>371</v>
@@ -6679,7 +6679,7 @@
       </c>
       <c r="H66" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I66" s="11" t="s">
         <v>64</v>
@@ -6690,7 +6690,7 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="n">
-        <v>66</v>
+        <v>20064</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>376</v>
@@ -6712,7 +6712,7 @@
       </c>
       <c r="H67" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" s="11" t="s">
         <v>64</v>
@@ -6723,7 +6723,7 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="n">
-        <v>67</v>
+        <v>20065</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>323</v>
@@ -6756,7 +6756,7 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="n">
-        <v>68</v>
+        <v>20066</v>
       </c>
       <c r="B69" s="0" t="s">
         <v>385</v>
@@ -6778,7 +6778,7 @@
       </c>
       <c r="H69" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I69" s="11" t="s">
         <v>65</v>
@@ -6789,7 +6789,7 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="n">
-        <v>69</v>
+        <v>20067</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>390</v>
@@ -6811,7 +6811,7 @@
       </c>
       <c r="H70" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I70" s="11" t="s">
         <v>65</v>
@@ -6822,7 +6822,7 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="n">
-        <v>70</v>
+        <v>20068</v>
       </c>
       <c r="B71" s="0" t="s">
         <v>246</v>
@@ -6844,7 +6844,7 @@
       </c>
       <c r="H71" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I71" s="11" t="s">
         <v>65</v>
@@ -6855,7 +6855,7 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="n">
-        <v>71</v>
+        <v>20069</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>399</v>
@@ -6877,7 +6877,7 @@
       </c>
       <c r="H72" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I72" s="11" t="s">
         <v>64</v>
@@ -6888,7 +6888,7 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="n">
-        <v>72</v>
+        <v>20070</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>404</v>
@@ -6910,7 +6910,7 @@
       </c>
       <c r="H73" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" s="11" t="s">
         <v>64</v>
@@ -6921,7 +6921,7 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="n">
-        <v>73</v>
+        <v>20071</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>409</v>
@@ -6943,7 +6943,7 @@
       </c>
       <c r="H74" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" s="11" t="s">
         <v>64</v>
@@ -6954,7 +6954,7 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="n">
-        <v>74</v>
+        <v>20072</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>414</v>
@@ -6976,7 +6976,7 @@
       </c>
       <c r="H75" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I75" s="11" t="s">
         <v>64</v>
@@ -6987,7 +6987,7 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="n">
-        <v>75</v>
+        <v>20073</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>101</v>
@@ -7009,7 +7009,7 @@
       </c>
       <c r="H76" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I76" s="11" t="s">
         <v>65</v>
@@ -7020,7 +7020,7 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="n">
-        <v>76</v>
+        <v>20074</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>423</v>
@@ -7042,7 +7042,7 @@
       </c>
       <c r="H77" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I77" s="11" t="s">
         <v>65</v>
@@ -7053,7 +7053,7 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="n">
-        <v>77</v>
+        <v>20075</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>226</v>
@@ -7086,7 +7086,7 @@
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="n">
-        <v>78</v>
+        <v>20076</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>431</v>
@@ -7108,7 +7108,7 @@
       </c>
       <c r="H79" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I79" s="11" t="s">
         <v>65</v>
@@ -7119,7 +7119,7 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="n">
-        <v>79</v>
+        <v>20077</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>436</v>
@@ -7141,7 +7141,7 @@
       </c>
       <c r="H80" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80" s="11" t="s">
         <v>65</v>
@@ -7152,7 +7152,7 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="n">
-        <v>80</v>
+        <v>20078</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>441</v>
@@ -7174,7 +7174,7 @@
       </c>
       <c r="H81" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I81" s="11" t="s">
         <v>65</v>
@@ -7185,7 +7185,7 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="n">
-        <v>81</v>
+        <v>20079</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>446</v>
@@ -7207,7 +7207,7 @@
       </c>
       <c r="H82" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" s="11" t="s">
         <v>65</v>
@@ -7218,7 +7218,7 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="n">
-        <v>82</v>
+        <v>20080</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>451</v>
@@ -7240,7 +7240,7 @@
       </c>
       <c r="H83" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I83" s="11" t="s">
         <v>65</v>
@@ -7251,7 +7251,7 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="n">
-        <v>83</v>
+        <v>20081</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>456</v>
@@ -7273,7 +7273,7 @@
       </c>
       <c r="H84" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I84" s="11" t="s">
         <v>65</v>
@@ -7284,7 +7284,7 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="n">
-        <v>84</v>
+        <v>20082</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>461</v>
@@ -7306,7 +7306,7 @@
       </c>
       <c r="H85" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I85" s="11" t="s">
         <v>65</v>
@@ -7317,7 +7317,7 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="n">
-        <v>85</v>
+        <v>20083</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>466</v>
@@ -7339,7 +7339,7 @@
       </c>
       <c r="H86" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" s="11" t="s">
         <v>65</v>
@@ -7350,7 +7350,7 @@
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="n">
-        <v>86</v>
+        <v>20084</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>471</v>
@@ -7372,7 +7372,7 @@
       </c>
       <c r="H87" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I87" s="11" t="s">
         <v>65</v>
@@ -7383,7 +7383,7 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="n">
-        <v>87</v>
+        <v>20085</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>476</v>
@@ -7405,7 +7405,7 @@
       </c>
       <c r="H88" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" s="11" t="s">
         <v>65</v>
@@ -7416,7 +7416,7 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="n">
-        <v>88</v>
+        <v>20086</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>481</v>
@@ -7438,7 +7438,7 @@
       </c>
       <c r="H89" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I89" s="11" t="s">
         <v>65</v>
@@ -7449,7 +7449,7 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="n">
-        <v>89</v>
+        <v>20087</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>486</v>
@@ -7482,7 +7482,7 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="n">
-        <v>90</v>
+        <v>20088</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>490</v>
@@ -7515,7 +7515,7 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="n">
-        <v>91</v>
+        <v>20089</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>495</v>
@@ -7537,7 +7537,7 @@
       </c>
       <c r="H92" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I92" s="11" t="s">
         <v>65</v>
@@ -7548,7 +7548,7 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="n">
-        <v>92</v>
+        <v>20090</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>500</v>
@@ -7570,7 +7570,7 @@
       </c>
       <c r="H93" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I93" s="11" t="s">
         <v>65</v>
@@ -7581,7 +7581,7 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="n">
-        <v>93</v>
+        <v>20091</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>505</v>
@@ -7603,7 +7603,7 @@
       </c>
       <c r="H94" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I94" s="11" t="s">
         <v>65</v>
@@ -7614,7 +7614,7 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="4" t="n">
-        <v>94</v>
+        <v>20092</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>510</v>
@@ -7647,7 +7647,7 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="n">
-        <v>95</v>
+        <v>20093</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>515</v>
@@ -7669,7 +7669,7 @@
       </c>
       <c r="H96" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I96" s="11" t="s">
         <v>65</v>
@@ -7680,7 +7680,7 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="n">
-        <v>96</v>
+        <v>20094</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>309</v>
@@ -7713,7 +7713,7 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="n">
-        <v>97</v>
+        <v>20095</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>524</v>
@@ -7735,7 +7735,7 @@
       </c>
       <c r="H98" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" s="11" t="s">
         <v>65</v>
@@ -7746,7 +7746,7 @@
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="n">
-        <v>98</v>
+        <v>20096</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>285</v>
@@ -7768,7 +7768,7 @@
       </c>
       <c r="H99" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I99" s="11" t="s">
         <v>65</v>
@@ -7779,7 +7779,7 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="n">
-        <v>99</v>
+        <v>20097</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>510</v>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="H100" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I100" s="11" t="s">
         <v>65</v>
@@ -7812,7 +7812,7 @@
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="n">
-        <v>100</v>
+        <v>20098</v>
       </c>
       <c r="B101" s="0" t="s">
         <v>486</v>
@@ -7834,7 +7834,7 @@
       </c>
       <c r="H101" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" s="11" t="s">
         <v>65</v>
@@ -7845,7 +7845,7 @@
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="n">
-        <v>101</v>
+        <v>20099</v>
       </c>
       <c r="B102" s="0" t="s">
         <v>541</v>
@@ -8003,10 +8003,10 @@
   <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="1" sqref="I27 J2"/>
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.28"/>
@@ -8075,15 +8075,15 @@
       </c>
       <c r="E3" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8091,7 +8091,7 @@
       </c>
       <c r="I3" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8109,23 +8109,23 @@
       </c>
       <c r="E4" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G4" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8147,11 +8147,11 @@
       </c>
       <c r="F5" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G5" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8159,7 +8159,7 @@
       </c>
       <c r="I5" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8177,11 +8177,11 @@
       </c>
       <c r="E6" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F6" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G6" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8211,15 +8211,15 @@
       </c>
       <c r="E7" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G7" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8245,15 +8245,15 @@
       </c>
       <c r="E8" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G8" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8261,7 +8261,7 @@
       </c>
       <c r="I8" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8273,22 +8273,22 @@
       </c>
       <c r="C9" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G9" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8308,14 +8308,14 @@
       </c>
       <c r="C10" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -8331,7 +8331,7 @@
       </c>
       <c r="I10" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8350,11 +8350,11 @@
       </c>
       <c r="E11" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F11" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G11" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8362,11 +8362,11 @@
       </c>
       <c r="H11" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8378,18 +8378,18 @@
       </c>
       <c r="C12" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D12" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E12" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F12" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G12" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8401,7 +8401,7 @@
       </c>
       <c r="I12" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8420,19 +8420,19 @@
       </c>
       <c r="E13" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F13" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G13" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8448,26 +8448,26 @@
       </c>
       <c r="C14" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E14" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F14" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G14" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8483,22 +8483,22 @@
       </c>
       <c r="C15" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E15" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F15" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G15" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8506,7 +8506,7 @@
       </c>
       <c r="I15" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8518,18 +8518,18 @@
       </c>
       <c r="C16" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>6</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
         <v>3</v>
       </c>
-      <c r="D16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
-      </c>
       <c r="F16" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G16" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8541,7 +8541,7 @@
       </c>
       <c r="I16" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8553,7 +8553,7 @@
       </c>
       <c r="C17" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>1</v>
@@ -8564,11 +8564,11 @@
       </c>
       <c r="F17" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G17" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8576,7 +8576,7 @@
       </c>
       <c r="I17" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8588,18 +8588,18 @@
       </c>
       <c r="C18" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E18" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F18" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G18" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8623,18 +8623,18 @@
       </c>
       <c r="C19" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E19" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G19" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8642,11 +8642,11 @@
       </c>
       <c r="H19" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8658,14 +8658,14 @@
       </c>
       <c r="C20" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D20" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E20" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -8681,7 +8681,7 @@
       </c>
       <c r="I20" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8693,30 +8693,30 @@
       </c>
       <c r="C21" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E21" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F21" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G21" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8739,19 +8739,19 @@
       </c>
       <c r="F22" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G22" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8763,22 +8763,22 @@
       </c>
       <c r="C23" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E23" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F23" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G23" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8786,7 +8786,7 @@
       </c>
       <c r="I23" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8802,15 +8802,15 @@
       </c>
       <c r="D24" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E24" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F24" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G24" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8822,7 +8822,7 @@
       </c>
       <c r="I24" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8834,27 +8834,27 @@
       </c>
       <c r="C25" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>3</v>
+      </c>
+      <c r="D25" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>6</v>
+      </c>
+      <c r="E25" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
         <v>4</v>
       </c>
-      <c r="D25" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
-      </c>
-      <c r="E25" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
-      </c>
       <c r="F25" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G25" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8870,15 +8870,15 @@
       </c>
       <c r="C26" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D26" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E26" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -8886,11 +8886,11 @@
       </c>
       <c r="G26" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8910,15 +8910,15 @@
       </c>
       <c r="D27" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E27" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G27" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8942,11 +8942,11 @@
       </c>
       <c r="C28" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E28" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -8954,11 +8954,11 @@
       </c>
       <c r="F28" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G28" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -8978,23 +8978,23 @@
       </c>
       <c r="C29" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>5</v>
+      </c>
+      <c r="D29" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>4</v>
       </c>
-      <c r="D29" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
-      </c>
       <c r="E29" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F29" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G29" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H29" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9002,7 +9002,7 @@
       </c>
       <c r="I29" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9014,11 +9014,11 @@
       </c>
       <c r="C30" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D30" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -9026,7 +9026,7 @@
       </c>
       <c r="F30" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G30" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9034,7 +9034,7 @@
       </c>
       <c r="H30" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9054,16 +9054,16 @@
       </c>
       <c r="D31" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E31" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
+        <v>2</v>
+      </c>
+      <c r="F31" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>4</v>
       </c>
-      <c r="F31" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
-      </c>
       <c r="G31" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
         <v>1</v>
@@ -9074,7 +9074,7 @@
       </c>
       <c r="I31" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9086,7 +9086,7 @@
       </c>
       <c r="C32" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -9102,7 +9102,7 @@
       </c>
       <c r="G32" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9110,7 +9110,7 @@
       </c>
       <c r="I32" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9122,11 +9122,11 @@
       </c>
       <c r="C33" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D33" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E33" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -9134,11 +9134,11 @@
       </c>
       <c r="F33" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G33" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9162,15 +9162,15 @@
       </c>
       <c r="D34" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E34" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G34" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9194,19 +9194,19 @@
       </c>
       <c r="C35" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>5</v>
+      </c>
+      <c r="D35" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>12</v>
+      </c>
+      <c r="E35" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
         <v>3</v>
       </c>
-      <c r="D35" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
-      </c>
-      <c r="E35" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
-      </c>
       <c r="F35" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G35" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9214,11 +9214,11 @@
       </c>
       <c r="H35" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9230,19 +9230,19 @@
       </c>
       <c r="C36" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D36" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E36" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G36" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9254,7 +9254,7 @@
       </c>
       <c r="I36" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9266,23 +9266,23 @@
       </c>
       <c r="C37" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D37" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E37" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F37" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G37" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H37" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9290,7 +9290,7 @@
       </c>
       <c r="I37" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9302,11 +9302,11 @@
       </c>
       <c r="C38" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D38" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E38" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -9314,7 +9314,7 @@
       </c>
       <c r="F38" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G38" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9322,11 +9322,11 @@
       </c>
       <c r="H38" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9338,23 +9338,23 @@
       </c>
       <c r="C39" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D39" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E39" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F39" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G39" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9374,19 +9374,19 @@
       </c>
       <c r="C40" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D40" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E40" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F40" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G40" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9398,7 +9398,7 @@
       </c>
       <c r="I40" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9410,23 +9410,23 @@
       </c>
       <c r="C41" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E41" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F41" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G41" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9446,19 +9446,19 @@
       </c>
       <c r="C42" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>7</v>
+      </c>
+      <c r="D42" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>4</v>
       </c>
-      <c r="D42" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
-      </c>
       <c r="E42" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
         <v>3</v>
       </c>
       <c r="F42" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G42" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9482,7 +9482,7 @@
       </c>
       <c r="C43" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D43" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -9490,11 +9490,11 @@
       </c>
       <c r="E43" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F43" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G43" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9502,11 +9502,11 @@
       </c>
       <c r="H43" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9518,11 +9518,11 @@
       </c>
       <c r="C44" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D44" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E44" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -9530,7 +9530,7 @@
       </c>
       <c r="F44" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G44" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9542,7 +9542,7 @@
       </c>
       <c r="I44" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9558,11 +9558,11 @@
       </c>
       <c r="D45" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E45" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F45" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -9570,11 +9570,11 @@
       </c>
       <c r="G45" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H45" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9590,19 +9590,19 @@
       </c>
       <c r="C46" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>1</v>
+      </c>
+      <c r="D46" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>5</v>
       </c>
-      <c r="D46" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
-      </c>
       <c r="E46" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F46" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G46" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9614,7 +9614,7 @@
       </c>
       <c r="I46" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9626,31 +9626,31 @@
       </c>
       <c r="C47" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D47" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>7</v>
+      </c>
+      <c r="E47" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
+        <v>2</v>
+      </c>
+      <c r="F47" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>10</v>
       </c>
-      <c r="E47" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
-      </c>
-      <c r="F47" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
-      </c>
       <c r="G47" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
         <v>1</v>
       </c>
       <c r="H47" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9666,27 +9666,27 @@
       </c>
       <c r="D48" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E48" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F48" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G48" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H48" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9698,11 +9698,11 @@
       </c>
       <c r="C49" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D49" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E49" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -9718,11 +9718,11 @@
       </c>
       <c r="H49" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9734,15 +9734,15 @@
       </c>
       <c r="C50" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D50" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E50" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -9750,11 +9750,11 @@
       </c>
       <c r="G50" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H50" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9770,19 +9770,19 @@
       </c>
       <c r="C51" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D51" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E51" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F51" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G51" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9790,7 +9790,7 @@
       </c>
       <c r="H51" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9806,27 +9806,27 @@
       </c>
       <c r="C52" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>2</v>
+      </c>
+      <c r="D52" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>10</v>
+      </c>
+      <c r="E52" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
         <v>4</v>
       </c>
-      <c r="D52" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
-      </c>
-      <c r="E52" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
-      </c>
       <c r="F52" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G52" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H52" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9842,23 +9842,23 @@
       </c>
       <c r="C53" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>2</v>
+      </c>
+      <c r="D53" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>4</v>
       </c>
-      <c r="D53" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
-      </c>
       <c r="E53" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
         <v>1</v>
       </c>
       <c r="F53" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G53" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H53" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9866,7 +9866,7 @@
       </c>
       <c r="I53" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9878,27 +9878,27 @@
       </c>
       <c r="C54" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D54" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E54" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
+        <v>2</v>
+      </c>
+      <c r="F54" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>4</v>
       </c>
-      <c r="F54" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
-      </c>
       <c r="G54" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
         <v>1</v>
       </c>
       <c r="H54" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9914,19 +9914,19 @@
       </c>
       <c r="C55" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>6</v>
+      </c>
+      <c r="D55" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>11</v>
+      </c>
+      <c r="E55" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
         <v>3</v>
       </c>
-      <c r="D55" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
-      </c>
-      <c r="E55" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
-      </c>
       <c r="F55" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G55" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9950,19 +9950,19 @@
       </c>
       <c r="C56" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E56" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F56" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G56" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9970,7 +9970,7 @@
       </c>
       <c r="H56" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -9986,19 +9986,19 @@
       </c>
       <c r="C57" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D57" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E57" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F57" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G57" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10006,7 +10006,7 @@
       </c>
       <c r="H57" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10026,15 +10026,15 @@
       </c>
       <c r="D58" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E58" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F58" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G58" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10046,7 +10046,7 @@
       </c>
       <c r="I58" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10058,27 +10058,27 @@
       </c>
       <c r="C59" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D59" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E59" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F59" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G59" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H59" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10094,27 +10094,27 @@
       </c>
       <c r="C60" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D60" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E60" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F60" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G60" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H60" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10134,7 +10134,7 @@
       </c>
       <c r="D61" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E61" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -10142,15 +10142,15 @@
       </c>
       <c r="F61" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G61" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H61" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10166,11 +10166,11 @@
       </c>
       <c r="C62" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D62" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E62" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -10178,11 +10178,11 @@
       </c>
       <c r="F62" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G62" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H62" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10190,7 +10190,7 @@
       </c>
       <c r="I62" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10202,11 +10202,11 @@
       </c>
       <c r="C63" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D63" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E63" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -10214,7 +10214,7 @@
       </c>
       <c r="F63" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G63" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10226,7 +10226,7 @@
       </c>
       <c r="I63" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10238,19 +10238,19 @@
       </c>
       <c r="C64" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D64" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E64" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F64" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G64" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10274,31 +10274,31 @@
       </c>
       <c r="C65" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D65" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E65" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F65" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G65" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H65" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10310,11 +10310,11 @@
       </c>
       <c r="C66" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D66" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E66" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -10322,11 +10322,11 @@
       </c>
       <c r="F66" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G66" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H66" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10334,7 +10334,7 @@
       </c>
       <c r="I66" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10346,7 +10346,7 @@
       </c>
       <c r="C67" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D67" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -10354,15 +10354,15 @@
       </c>
       <c r="E67" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F67" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G67" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H67" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10382,23 +10382,23 @@
       </c>
       <c r="C68" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>6</v>
+      </c>
+      <c r="D68" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>12</v>
+      </c>
+      <c r="E68" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
+        <v>2</v>
+      </c>
+      <c r="F68" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>4</v>
       </c>
-      <c r="D68" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
-      </c>
-      <c r="E68" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
-      </c>
-      <c r="F68" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
-      </c>
       <c r="G68" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H68" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10406,7 +10406,7 @@
       </c>
       <c r="I68" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10418,11 +10418,11 @@
       </c>
       <c r="C69" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D69" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E69" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -10430,7 +10430,7 @@
       </c>
       <c r="F69" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G69" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10454,11 +10454,11 @@
       </c>
       <c r="C70" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D70" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E70" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -10466,7 +10466,7 @@
       </c>
       <c r="F70" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G70" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10490,19 +10490,19 @@
       </c>
       <c r="C71" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D71" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E71" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F71" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G71" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10510,7 +10510,7 @@
       </c>
       <c r="H71" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10526,23 +10526,23 @@
       </c>
       <c r="C72" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D72" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E72" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F72" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G72" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H72" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10566,15 +10566,15 @@
       </c>
       <c r="D73" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E73" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F73" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G73" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10582,7 +10582,7 @@
       </c>
       <c r="H73" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10598,19 +10598,19 @@
       </c>
       <c r="C74" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E74" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F74" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G74" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10618,7 +10618,7 @@
       </c>
       <c r="H74" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10634,19 +10634,19 @@
       </c>
       <c r="C75" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D75" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E75" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F75" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G75" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10654,11 +10654,11 @@
       </c>
       <c r="H75" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10670,23 +10670,23 @@
       </c>
       <c r="C76" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E76" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F76" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G76" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H76" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10694,7 +10694,7 @@
       </c>
       <c r="I76" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10706,23 +10706,23 @@
       </c>
       <c r="C77" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D77" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E77" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F77" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G77" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H77" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10742,11 +10742,11 @@
       </c>
       <c r="C78" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D78" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E78" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -10754,11 +10754,11 @@
       </c>
       <c r="F78" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G78" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H78" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10766,7 +10766,7 @@
       </c>
       <c r="I78" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10778,23 +10778,23 @@
       </c>
       <c r="C79" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D79" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E79" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F79" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G79" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H79" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10814,11 +10814,11 @@
       </c>
       <c r="C80" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E80" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -10826,11 +10826,11 @@
       </c>
       <c r="F80" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G80" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H80" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10838,7 +10838,7 @@
       </c>
       <c r="I80" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10850,19 +10850,19 @@
       </c>
       <c r="C81" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E81" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F81" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G81" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10870,7 +10870,7 @@
       </c>
       <c r="H81" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10890,15 +10890,15 @@
       </c>
       <c r="D82" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E82" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F82" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G82" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10922,7 +10922,7 @@
       </c>
       <c r="C83" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D83" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -10930,11 +10930,11 @@
       </c>
       <c r="E83" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F83" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G83" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10946,7 +10946,7 @@
       </c>
       <c r="I83" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10958,23 +10958,23 @@
       </c>
       <c r="C84" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E84" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F84" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G84" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H84" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -10998,15 +10998,15 @@
       </c>
       <c r="D85" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E85" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F85" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G85" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11014,11 +11014,11 @@
       </c>
       <c r="H85" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11030,31 +11030,31 @@
       </c>
       <c r="C86" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D86" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>3</v>
+      </c>
+      <c r="E86" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
+        <v>2</v>
+      </c>
+      <c r="F86" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>11</v>
       </c>
-      <c r="E86" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
-      </c>
-      <c r="F86" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
-      </c>
       <c r="G86" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
         <v>2</v>
       </c>
       <c r="H86" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11066,15 +11066,15 @@
       </c>
       <c r="C87" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D87" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E87" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F87" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -11082,15 +11082,15 @@
       </c>
       <c r="G87" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H87" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11102,27 +11102,27 @@
       </c>
       <c r="C88" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>10</v>
+      </c>
+      <c r="E88" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
+        <v>1</v>
+      </c>
+      <c r="F88" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
         <v>11</v>
       </c>
-      <c r="E88" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
-      </c>
-      <c r="F88" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
-      </c>
       <c r="G88" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H88" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11138,23 +11138,23 @@
       </c>
       <c r="C89" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D89" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E89" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F89" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G89" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H89" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11174,31 +11174,31 @@
       </c>
       <c r="C90" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D90" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E90" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F90" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G90" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H90" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11210,19 +11210,19 @@
       </c>
       <c r="C91" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D91" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E91" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F91" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G91" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11234,7 +11234,7 @@
       </c>
       <c r="I91" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11246,11 +11246,11 @@
       </c>
       <c r="C92" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D92" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E92" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -11282,27 +11282,27 @@
       </c>
       <c r="C93" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>4</v>
+      </c>
+      <c r="D93" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>2</v>
+      </c>
+      <c r="E93" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
         <v>3</v>
       </c>
-      <c r="D93" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
-      </c>
-      <c r="E93" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
-      </c>
       <c r="F93" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G93" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H93" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11318,23 +11318,23 @@
       </c>
       <c r="C94" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D94" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E94" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F94" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G94" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H94" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11354,31 +11354,31 @@
       </c>
       <c r="C95" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E95" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F95" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G95" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H95" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11394,19 +11394,19 @@
       </c>
       <c r="D96" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E96" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F96" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G96" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H96" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11426,19 +11426,19 @@
       </c>
       <c r="C97" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
+        <v>1</v>
+      </c>
+      <c r="D97" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,12)</f>
+        <v>9</v>
+      </c>
+      <c r="E97" s="4" t="n">
+        <f aca="false">RANDBETWEEN(1,4)</f>
         <v>3</v>
       </c>
-      <c r="D97" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
-      </c>
-      <c r="E97" s="4" t="n">
-        <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>2</v>
-      </c>
       <c r="F97" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G97" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11462,31 +11462,31 @@
       </c>
       <c r="C98" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D98" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E98" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F98" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G98" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H98" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11498,23 +11498,23 @@
       </c>
       <c r="C99" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E99" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F99" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G99" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H99" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11522,7 +11522,7 @@
       </c>
       <c r="I99" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11534,7 +11534,7 @@
       </c>
       <c r="C100" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
@@ -11554,11 +11554,11 @@
       </c>
       <c r="H100" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11570,19 +11570,19 @@
       </c>
       <c r="C101" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E101" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F101" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G101" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
@@ -11606,11 +11606,11 @@
       </c>
       <c r="C102" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D102" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E102" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,4)</f>
@@ -11618,15 +11618,15 @@
       </c>
       <c r="F102" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G102" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H102" s="4" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" s="0" t="n">
         <f aca="false">RANDBETWEEN(1,2)</f>
